--- a/excel/finished/环保/8BF-煤气布袋除尘报表.xlsx
+++ b/excel/finished/环保/8BF-煤气布袋除尘报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="8BF-煤气布袋除尘报表" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>8号高炉煤气布袋除尘器运行记录</t>
   </si>
@@ -484,7 +484,7 @@
     <t>BF8_L2C_DEDUST_TE_XT24_1m_avg</t>
   </si>
   <si>
-    <t>BF8_L2C_DEDUST_FL_JMQ_1m_avg</t>
+    <t>BF8_L2C_DEDUST_FL_BFG_1m_avg</t>
   </si>
   <si>
     <t>BF8_L2C_DEDUST_DU_BFGGW_1m_avg</t>
@@ -508,12 +508,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,14 +562,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,17 +639,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -614,15 +661,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,63 +691,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,6 +701,17 @@
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -720,13 +731,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,55 +803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,13 +815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,13 +839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,13 +857,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,37 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,6 +894,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,11 +1097,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,6 +1139,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1124,57 +1176,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,133 +1194,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1758,10 +1769,13 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="20" max="20" width="31.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:20">
       <c r="A1" s="10"/>
@@ -1957,7 +1971,7 @@
         <v/>
       </c>
       <c r="L5" s="21" t="str">
-        <f t="shared" ref="L5:L28" si="0">IF(AND(C5="",E5=""),"",C5-E5)</f>
+        <f t="shared" ref="L5:L28" si="0">IF(AND(C5="",D5=""),"",C5-D5)</f>
         <v/>
       </c>
       <c r="M5" s="21" t="str">
@@ -3821,7 +3835,7 @@
   <dimension ref="A1:BC49"/>
   <sheetViews>
     <sheetView topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="BB1" sqref="BB1:BC1"/>
+      <selection activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/finished/环保/8BF-煤气布袋除尘报表.xlsx
+++ b/excel/finished/环保/8BF-煤气布袋除尘报表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\朱川\Desktop\布袋除尘\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="8BF-煤气布袋除尘报表" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="_maxmin_day_hour" sheetId="5" r:id="rId5"/>
     <sheet name="_fanchui8_day_hour" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="I5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0">
+    <comment ref="O5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +105,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +159,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -505,15 +510,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,7 +529,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -554,150 +558,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
@@ -715,8 +575,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,194 +596,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1078,253 +759,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
@@ -1334,9 +773,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,67 +790,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,6 +814,83 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1440,69 +899,55 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1760,2049 +1205,2061 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S1" activeCellId="1" sqref="R1:R1048576 S1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="9" style="23"/>
+    <col min="3" max="7" width="9" style="32"/>
+    <col min="8" max="8" width="9" style="23"/>
+    <col min="9" max="9" width="9" style="32"/>
+    <col min="10" max="10" width="9" style="23"/>
+    <col min="11" max="11" width="9" style="32"/>
+    <col min="12" max="12" width="9" style="37"/>
+    <col min="13" max="13" width="9" style="43"/>
+    <col min="14" max="14" width="9" style="37"/>
+    <col min="15" max="15" width="9" style="26"/>
+    <col min="16" max="17" width="9" style="37"/>
+    <col min="18" max="19" width="9" style="32"/>
+    <col min="20" max="20" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:20">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="1:20" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="9"/>
     </row>
-    <row r="2" ht="15" spans="1:20">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="12" t="str">
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="59" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="31" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="9"/>
     </row>
-    <row r="3" ht="14.25" spans="1:20">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14" t="s">
+      <c r="N3" s="50"/>
+      <c r="O3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14" t="s">
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="35" t="s">
+      <c r="S3" s="50"/>
+      <c r="T3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="30.75" spans="1:20">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="1:20" ht="49.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="S4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="36"/>
+      <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="19">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A2:_tag_day_hour!X2)=0,"",COUNTIF(_tag_day_hour!A2:_tag_day_hour!X2,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C5" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A2:'_tag_day_hour'!X2)=0,"",COUNTIF(_tag_day_hour!A2:'_tag_day_hour'!X2,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C5" s="29" t="str">
         <f>IF(_tag_day_hour!Y2="","",_tag_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="D5" s="21" t="str">
+      <c r="D5" s="29" t="str">
         <f>IF(_tag_day_hour!Z2="","",_tag_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="E5" s="21" t="str">
+      <c r="E5" s="29" t="str">
         <f>IF(_tag_day_hour!AA2="","",_tag_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="F5" s="22" t="str">
+      <c r="F5" s="29" t="str">
         <f>IF(_tag_day_hour!AB2="","",_tag_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="G5" s="22" t="str">
+      <c r="G5" s="29" t="str">
         <f>IF(_tag_day_hour!AC2="","",_tag_day_hour!AC2)</f>
         <v/>
       </c>
       <c r="H5" s="20" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD26:_tag_day_hour!BA26)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD26:_tag_day_hour!BA26),_tag_day_hour!AD26:_tag_day_hour!BA26,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD26:_tag_day_hour!BA26),_tag_day_hour!AD26:_tag_day_hour!BA26,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I5" s="22" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD26:_tag_day_hour!BA26)=24,"",MAX(_tag_day_hour!AD26:_tag_day_hour!BA26))</f>
+        <f>IF(COUNTBLANK(_tag_day_hour!AD26:'_tag_day_hour'!BA26)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD26:'_tag_day_hour'!BA26),_tag_day_hour!AD26:'_tag_day_hour'!BA26,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD26:'_tag_day_hour'!BA26),_tag_day_hour!AD26:'_tag_day_hour'!BA26,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I5" s="29" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD26:'_tag_day_hour'!BA26)=24,"",MAX(_tag_day_hour!AD26:'_tag_day_hour'!BA26))</f>
         <v/>
       </c>
       <c r="J5" s="20" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD26:_tag_day_hour!BA26)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD26:_tag_day_hour!BA26),_tag_day_hour!AD26:_tag_day_hour!BA26,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD26:_tag_day_hour!BA26),_tag_day_hour!AD26:_tag_day_hour!BA26,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K5" s="22" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD26:_tag_day_hour!BA26)=24,"",MIN(_tag_day_hour!AD26:_tag_day_hour!BA26))</f>
-        <v/>
-      </c>
-      <c r="L5" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD26:'_tag_day_hour'!BA26)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD26:'_tag_day_hour'!BA26),_tag_day_hour!AD26:'_tag_day_hour'!BA26,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD26:'_tag_day_hour'!BA26),_tag_day_hour!AD26:'_tag_day_hour'!BA26,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K5" s="29" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD26:'_tag_day_hour'!BA26)=24,"",MIN(_tag_day_hour!AD26:'_tag_day_hour'!BA26))</f>
+        <v/>
+      </c>
+      <c r="L5" s="34" t="str">
         <f t="shared" ref="L5:L28" si="0">IF(AND(C5="",D5=""),"",C5-D5)</f>
         <v/>
       </c>
-      <c r="M5" s="21" t="str">
+      <c r="M5" s="40" t="str">
         <f>IF(_tag_day_hour!BB2="","",_tag_day_hour!BB2)</f>
         <v/>
       </c>
-      <c r="N5" s="21" t="str">
+      <c r="N5" s="34" t="str">
         <f>IF(_tag_day_hour!BC2="","",_tag_day_hour!BC2)</f>
         <v/>
       </c>
-      <c r="O5" s="32" t="str">
+      <c r="O5" s="13" t="str">
         <f>IF(_fanchui8_day_hour!B2="","",_fanchui8_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="P5" s="21" t="str">
+      <c r="P5" s="34" t="str">
         <f>IF(_fanchui8_day_hour!C2="","",_fanchui8_day_hour!C2-_fanchui8_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="Q5" s="21" t="str">
+      <c r="Q5" s="34" t="str">
         <f>IF(_fanchui8_day_hour!D2="","",_fanchui8_day_hour!E2-_fanchui8_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="R5" s="26" t="str">
+      <c r="R5" s="30" t="str">
         <f>IF(_maxmin_day_hour!A2="","",_maxmin_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="S5" s="26" t="str">
+      <c r="S5" s="30" t="str">
         <f>IF(_maxmin_day_hour!B2="","",_maxmin_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="23">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A3:_tag_day_hour!X3)=0,"",COUNTIF(_tag_day_hour!A3:_tag_day_hour!X3,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C6" s="25" t="str">
+      <c r="B6" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A3:'_tag_day_hour'!X3)=0,"",COUNTIF(_tag_day_hour!A3:'_tag_day_hour'!X3,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C6" s="30" t="str">
         <f>IF(_tag_day_hour!Y3="","",_tag_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="D6" s="25" t="str">
+      <c r="D6" s="30" t="str">
         <f>IF(_tag_day_hour!Z3="","",_tag_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="E6" s="25" t="str">
+      <c r="E6" s="30" t="str">
         <f>IF(_tag_day_hour!AA3="","",_tag_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="F6" s="26" t="str">
+      <c r="F6" s="30" t="str">
         <f>IF(_tag_day_hour!AB3="","",_tag_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="G6" s="26" t="str">
+      <c r="G6" s="30" t="str">
         <f>IF(_tag_day_hour!AC3="","",_tag_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="H6" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD27:_tag_day_hour!BA27)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD27:_tag_day_hour!BA27),_tag_day_hour!AD27:_tag_day_hour!BA27,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD27:_tag_day_hour!BA27),_tag_day_hour!AD27:_tag_day_hour!BA27,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I6" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD27:_tag_day_hour!BA27)=24,"",MAX(_tag_day_hour!AD27:_tag_day_hour!BA27))</f>
-        <v/>
-      </c>
-      <c r="J6" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD27:_tag_day_hour!BA27)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD27:_tag_day_hour!BA27),_tag_day_hour!AD27:_tag_day_hour!BA27,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD27:_tag_day_hour!BA27),_tag_day_hour!AD27:_tag_day_hour!BA27,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K6" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD27:_tag_day_hour!BA27)=24,"",MIN(_tag_day_hour!AD27:_tag_day_hour!BA27))</f>
-        <v/>
-      </c>
-      <c r="L6" s="25" t="str">
+      <c r="H6" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD27:'_tag_day_hour'!BA27)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD27:'_tag_day_hour'!BA27),_tag_day_hour!AD27:'_tag_day_hour'!BA27,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD27:'_tag_day_hour'!BA27),_tag_day_hour!AD27:'_tag_day_hour'!BA27,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I6" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD27:'_tag_day_hour'!BA27)=24,"",MAX(_tag_day_hour!AD27:'_tag_day_hour'!BA27))</f>
+        <v/>
+      </c>
+      <c r="J6" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD27:'_tag_day_hour'!BA27)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD27:'_tag_day_hour'!BA27),_tag_day_hour!AD27:'_tag_day_hour'!BA27,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD27:'_tag_day_hour'!BA27),_tag_day_hour!AD27:'_tag_day_hour'!BA27,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K6" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD27:'_tag_day_hour'!BA27)=24,"",MIN(_tag_day_hour!AD27:'_tag_day_hour'!BA27))</f>
+        <v/>
+      </c>
+      <c r="L6" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M6" s="25" t="str">
+      <c r="M6" s="41" t="str">
         <f>IF(_tag_day_hour!BB3="","",_tag_day_hour!BB3)</f>
         <v/>
       </c>
-      <c r="N6" s="25" t="str">
+      <c r="N6" s="35" t="str">
         <f>IF(_tag_day_hour!BC3="","",_tag_day_hour!BC3)</f>
         <v/>
       </c>
-      <c r="O6" s="33" t="str">
+      <c r="O6" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B3="","",_fanchui8_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="P6" s="25" t="str">
+      <c r="P6" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C3="","",_fanchui8_day_hour!C3-_fanchui8_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="Q6" s="25" t="str">
+      <c r="Q6" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D3="","",_fanchui8_day_hour!E3-_fanchui8_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="R6" s="26" t="str">
+      <c r="R6" s="30" t="str">
         <f>IF(_maxmin_day_hour!A3="","",_maxmin_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="S6" s="26" t="str">
+      <c r="S6" s="30" t="str">
         <f>IF(_maxmin_day_hour!B3="","",_maxmin_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="T6" s="38"/>
+      <c r="T6" s="48"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="23">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A4:_tag_day_hour!X4)=0,"",COUNTIF(_tag_day_hour!A4:_tag_day_hour!X4,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C7" s="25" t="str">
+      <c r="B7" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A4:'_tag_day_hour'!X4)=0,"",COUNTIF(_tag_day_hour!A4:'_tag_day_hour'!X4,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C7" s="30" t="str">
         <f>IF(_tag_day_hour!Y4="","",_tag_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="D7" s="25" t="str">
+      <c r="D7" s="30" t="str">
         <f>IF(_tag_day_hour!Z4="","",_tag_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="E7" s="25" t="str">
+      <c r="E7" s="30" t="str">
         <f>IF(_tag_day_hour!AA4="","",_tag_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="F7" s="26" t="str">
+      <c r="F7" s="30" t="str">
         <f>IF(_tag_day_hour!AB4="","",_tag_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="G7" s="26" t="str">
+      <c r="G7" s="30" t="str">
         <f>IF(_tag_day_hour!AC4="","",_tag_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="H7" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD28:_tag_day_hour!BA28)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD28:_tag_day_hour!BA28),_tag_day_hour!AD28:_tag_day_hour!BA28,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD28:_tag_day_hour!BA28),_tag_day_hour!AD28:_tag_day_hour!BA28,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I7" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD28:_tag_day_hour!BA28)=24,"",MAX(_tag_day_hour!AD28:_tag_day_hour!BA28))</f>
-        <v/>
-      </c>
-      <c r="J7" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD28:_tag_day_hour!BA28)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD28:_tag_day_hour!BA28),_tag_day_hour!AD28:_tag_day_hour!BA28,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD28:_tag_day_hour!BA28),_tag_day_hour!AD28:_tag_day_hour!BA28,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K7" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD28:_tag_day_hour!BA28)=24,"",MIN(_tag_day_hour!AD28:_tag_day_hour!BA28))</f>
-        <v/>
-      </c>
-      <c r="L7" s="25" t="str">
+      <c r="H7" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD28:'_tag_day_hour'!BA28)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD28:'_tag_day_hour'!BA28),_tag_day_hour!AD28:'_tag_day_hour'!BA28,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD28:'_tag_day_hour'!BA28),_tag_day_hour!AD28:'_tag_day_hour'!BA28,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I7" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD28:'_tag_day_hour'!BA28)=24,"",MAX(_tag_day_hour!AD28:'_tag_day_hour'!BA28))</f>
+        <v/>
+      </c>
+      <c r="J7" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD28:'_tag_day_hour'!BA28)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD28:'_tag_day_hour'!BA28),_tag_day_hour!AD28:'_tag_day_hour'!BA28,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD28:'_tag_day_hour'!BA28),_tag_day_hour!AD28:'_tag_day_hour'!BA28,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K7" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD28:'_tag_day_hour'!BA28)=24,"",MIN(_tag_day_hour!AD28:'_tag_day_hour'!BA28))</f>
+        <v/>
+      </c>
+      <c r="L7" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M7" s="25" t="str">
+      <c r="M7" s="41" t="str">
         <f>IF(_tag_day_hour!BB4="","",_tag_day_hour!BB4)</f>
         <v/>
       </c>
-      <c r="N7" s="25" t="str">
+      <c r="N7" s="35" t="str">
         <f>IF(_tag_day_hour!BC4="","",_tag_day_hour!BC4)</f>
         <v/>
       </c>
-      <c r="O7" s="33" t="str">
+      <c r="O7" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B4="","",_fanchui8_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="P7" s="25" t="str">
+      <c r="P7" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C4="","",_fanchui8_day_hour!C4-_fanchui8_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="Q7" s="25" t="str">
+      <c r="Q7" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D4="","",_fanchui8_day_hour!E4-_fanchui8_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="R7" s="39" t="str">
+      <c r="R7" s="46" t="str">
         <f>IF(_maxmin_day_hour!A4="","",_maxmin_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="S7" s="39" t="str">
+      <c r="S7" s="46" t="str">
         <f>IF(_maxmin_day_hour!B4="","",_maxmin_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="T7" s="38"/>
+      <c r="T7" s="48"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="23">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A5:_tag_day_hour!X5)=0,"",COUNTIF(_tag_day_hour!A5:_tag_day_hour!X5,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C8" s="25" t="str">
+      <c r="B8" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A5:'_tag_day_hour'!X5)=0,"",COUNTIF(_tag_day_hour!A5:'_tag_day_hour'!X5,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C8" s="30" t="str">
         <f>IF(_tag_day_hour!Y5="","",_tag_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="D8" s="25" t="str">
+      <c r="D8" s="30" t="str">
         <f>IF(_tag_day_hour!Z5="","",_tag_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="E8" s="25" t="str">
+      <c r="E8" s="30" t="str">
         <f>IF(_tag_day_hour!AA5="","",_tag_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="F8" s="26" t="str">
+      <c r="F8" s="30" t="str">
         <f>IF(_tag_day_hour!AB5="","",_tag_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="G8" s="26" t="str">
+      <c r="G8" s="30" t="str">
         <f>IF(_tag_day_hour!AC5="","",_tag_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD29:_tag_day_hour!BA29)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD29:_tag_day_hour!BA29),_tag_day_hour!AD29:_tag_day_hour!BA29,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD29:_tag_day_hour!BA29),_tag_day_hour!AD29:_tag_day_hour!BA29,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I8" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD29:_tag_day_hour!BA29)=24,"",MAX(_tag_day_hour!AD29:_tag_day_hour!BA29))</f>
-        <v/>
-      </c>
-      <c r="J8" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD29:_tag_day_hour!BA29)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD29:_tag_day_hour!BA29),_tag_day_hour!AD29:_tag_day_hour!BA29,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD29:_tag_day_hour!BA29),_tag_day_hour!AD29:_tag_day_hour!BA29,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K8" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD29:_tag_day_hour!BA29)=24,"",MIN(_tag_day_hour!AD29:_tag_day_hour!BA29))</f>
-        <v/>
-      </c>
-      <c r="L8" s="25" t="str">
+      <c r="H8" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD29:'_tag_day_hour'!BA29)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD29:'_tag_day_hour'!BA29),_tag_day_hour!AD29:'_tag_day_hour'!BA29,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD29:'_tag_day_hour'!BA29),_tag_day_hour!AD29:'_tag_day_hour'!BA29,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I8" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD29:'_tag_day_hour'!BA29)=24,"",MAX(_tag_day_hour!AD29:'_tag_day_hour'!BA29))</f>
+        <v/>
+      </c>
+      <c r="J8" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD29:'_tag_day_hour'!BA29)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD29:'_tag_day_hour'!BA29),_tag_day_hour!AD29:'_tag_day_hour'!BA29,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD29:'_tag_day_hour'!BA29),_tag_day_hour!AD29:'_tag_day_hour'!BA29,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K8" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD29:'_tag_day_hour'!BA29)=24,"",MIN(_tag_day_hour!AD29:'_tag_day_hour'!BA29))</f>
+        <v/>
+      </c>
+      <c r="L8" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M8" s="25" t="str">
+      <c r="M8" s="41" t="str">
         <f>IF(_tag_day_hour!BB5="","",_tag_day_hour!BB5)</f>
         <v/>
       </c>
-      <c r="N8" s="25" t="str">
+      <c r="N8" s="35" t="str">
         <f>IF(_tag_day_hour!BC5="","",_tag_day_hour!BC5)</f>
         <v/>
       </c>
-      <c r="O8" s="33" t="str">
+      <c r="O8" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B5="","",_fanchui8_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="P8" s="25" t="str">
+      <c r="P8" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C5="","",_fanchui8_day_hour!C5-_fanchui8_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="Q8" s="25" t="str">
+      <c r="Q8" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D5="","",_fanchui8_day_hour!E5-_fanchui8_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="R8" s="26" t="str">
+      <c r="R8" s="30" t="str">
         <f>IF(_maxmin_day_hour!A5="","",_maxmin_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="S8" s="26" t="str">
+      <c r="S8" s="30" t="str">
         <f>IF(_maxmin_day_hour!B5="","",_maxmin_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="T8" s="38"/>
+      <c r="T8" s="48"/>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="23">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A6:_tag_day_hour!X6)=0,"",COUNTIF(_tag_day_hour!A6:_tag_day_hour!X6,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C9" s="25" t="str">
+      <c r="B9" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A6:'_tag_day_hour'!X6)=0,"",COUNTIF(_tag_day_hour!A6:'_tag_day_hour'!X6,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C9" s="30" t="str">
         <f>IF(_tag_day_hour!Y6="","",_tag_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="D9" s="25" t="str">
+      <c r="D9" s="30" t="str">
         <f>IF(_tag_day_hour!Z6="","",_tag_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="E9" s="25" t="str">
+      <c r="E9" s="30" t="str">
         <f>IF(_tag_day_hour!AA6="","",_tag_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="F9" s="26" t="str">
+      <c r="F9" s="30" t="str">
         <f>IF(_tag_day_hour!AB6="","",_tag_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="G9" s="26" t="str">
+      <c r="G9" s="30" t="str">
         <f>IF(_tag_day_hour!AC6="","",_tag_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="H9" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD30:_tag_day_hour!BA30)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD30:_tag_day_hour!BA30),_tag_day_hour!AD30:_tag_day_hour!BA30,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD30:_tag_day_hour!BA30),_tag_day_hour!AD30:_tag_day_hour!BA30,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I9" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD30:_tag_day_hour!BA30)=24,"",MAX(_tag_day_hour!AD30:_tag_day_hour!BA30))</f>
-        <v/>
-      </c>
-      <c r="J9" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD30:_tag_day_hour!BA30)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD30:_tag_day_hour!BA30),_tag_day_hour!AD30:_tag_day_hour!BA30,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD30:_tag_day_hour!BA30),_tag_day_hour!AD30:_tag_day_hour!BA30,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K9" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD30:_tag_day_hour!BA30)=24,"",MIN(_tag_day_hour!AD30:_tag_day_hour!BA30))</f>
-        <v/>
-      </c>
-      <c r="L9" s="25" t="str">
+      <c r="H9" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD30:'_tag_day_hour'!BA30)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD30:'_tag_day_hour'!BA30),_tag_day_hour!AD30:'_tag_day_hour'!BA30,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD30:'_tag_day_hour'!BA30),_tag_day_hour!AD30:'_tag_day_hour'!BA30,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I9" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD30:'_tag_day_hour'!BA30)=24,"",MAX(_tag_day_hour!AD30:'_tag_day_hour'!BA30))</f>
+        <v/>
+      </c>
+      <c r="J9" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD30:'_tag_day_hour'!BA30)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD30:'_tag_day_hour'!BA30),_tag_day_hour!AD30:'_tag_day_hour'!BA30,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD30:'_tag_day_hour'!BA30),_tag_day_hour!AD30:'_tag_day_hour'!BA30,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K9" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD30:'_tag_day_hour'!BA30)=24,"",MIN(_tag_day_hour!AD30:'_tag_day_hour'!BA30))</f>
+        <v/>
+      </c>
+      <c r="L9" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="25" t="str">
+      <c r="M9" s="41" t="str">
         <f>IF(_tag_day_hour!BB6="","",_tag_day_hour!BB6)</f>
         <v/>
       </c>
-      <c r="N9" s="25" t="str">
+      <c r="N9" s="35" t="str">
         <f>IF(_tag_day_hour!BC6="","",_tag_day_hour!BC6)</f>
         <v/>
       </c>
-      <c r="O9" s="33" t="str">
+      <c r="O9" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B6="","",_fanchui8_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="P9" s="25" t="str">
+      <c r="P9" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C6="","",_fanchui8_day_hour!C6-_fanchui8_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="Q9" s="25" t="str">
+      <c r="Q9" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D6="","",_fanchui8_day_hour!E6-_fanchui8_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="R9" s="26" t="str">
+      <c r="R9" s="30" t="str">
         <f>IF(_maxmin_day_hour!A6="","",_maxmin_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="S9" s="26" t="str">
+      <c r="S9" s="30" t="str">
         <f>IF(_maxmin_day_hour!B6="","",_maxmin_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="T9" s="38"/>
+      <c r="T9" s="48"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="23">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A7:_tag_day_hour!X7)=0,"",COUNTIF(_tag_day_hour!A7:_tag_day_hour!X7,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C10" s="25" t="str">
+      <c r="B10" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A7:'_tag_day_hour'!X7)=0,"",COUNTIF(_tag_day_hour!A7:'_tag_day_hour'!X7,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C10" s="30" t="str">
         <f>IF(_tag_day_hour!Y7="","",_tag_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="D10" s="25" t="str">
+      <c r="D10" s="30" t="str">
         <f>IF(_tag_day_hour!Z7="","",_tag_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="E10" s="25" t="str">
+      <c r="E10" s="30" t="str">
         <f>IF(_tag_day_hour!AA7="","",_tag_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="F10" s="26" t="str">
+      <c r="F10" s="30" t="str">
         <f>IF(_tag_day_hour!AB7="","",_tag_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="G10" s="26" t="str">
+      <c r="G10" s="30" t="str">
         <f>IF(_tag_day_hour!AC7="","",_tag_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="H10" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD31:_tag_day_hour!BA31)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD31:_tag_day_hour!BA31),_tag_day_hour!AD31:_tag_day_hour!BA31,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD31:_tag_day_hour!BA31),_tag_day_hour!AD31:_tag_day_hour!BA31,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I10" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD31:_tag_day_hour!BA31)=24,"",MAX(_tag_day_hour!AD31:_tag_day_hour!BA31))</f>
-        <v/>
-      </c>
-      <c r="J10" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD31:_tag_day_hour!BA31)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD31:_tag_day_hour!BA31),_tag_day_hour!AD31:_tag_day_hour!BA31,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD31:_tag_day_hour!BA31),_tag_day_hour!AD31:_tag_day_hour!BA31,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K10" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD31:_tag_day_hour!BA31)=24,"",MIN(_tag_day_hour!AD31:_tag_day_hour!BA31))</f>
-        <v/>
-      </c>
-      <c r="L10" s="25" t="str">
+      <c r="H10" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD31:'_tag_day_hour'!BA31)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD31:'_tag_day_hour'!BA31),_tag_day_hour!AD31:'_tag_day_hour'!BA31,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD31:'_tag_day_hour'!BA31),_tag_day_hour!AD31:'_tag_day_hour'!BA31,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I10" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD31:'_tag_day_hour'!BA31)=24,"",MAX(_tag_day_hour!AD31:'_tag_day_hour'!BA31))</f>
+        <v/>
+      </c>
+      <c r="J10" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD31:'_tag_day_hour'!BA31)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD31:'_tag_day_hour'!BA31),_tag_day_hour!AD31:'_tag_day_hour'!BA31,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD31:'_tag_day_hour'!BA31),_tag_day_hour!AD31:'_tag_day_hour'!BA31,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K10" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD31:'_tag_day_hour'!BA31)=24,"",MIN(_tag_day_hour!AD31:'_tag_day_hour'!BA31))</f>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="25" t="str">
+      <c r="M10" s="41" t="str">
         <f>IF(_tag_day_hour!BB7="","",_tag_day_hour!BB7)</f>
         <v/>
       </c>
-      <c r="N10" s="25" t="str">
+      <c r="N10" s="35" t="str">
         <f>IF(_tag_day_hour!BC7="","",_tag_day_hour!BC7)</f>
         <v/>
       </c>
-      <c r="O10" s="33" t="str">
+      <c r="O10" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B7="","",_fanchui8_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="P10" s="25" t="str">
+      <c r="P10" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C7="","",_fanchui8_day_hour!C7-_fanchui8_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="Q10" s="25" t="str">
+      <c r="Q10" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D7="","",_fanchui8_day_hour!E7-_fanchui8_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="R10" s="26" t="str">
+      <c r="R10" s="30" t="str">
         <f>IF(_maxmin_day_hour!A7="","",_maxmin_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="S10" s="26" t="str">
+      <c r="S10" s="30" t="str">
         <f>IF(_maxmin_day_hour!B7="","",_maxmin_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="T10" s="38"/>
+      <c r="T10" s="48"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="23">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A8:_tag_day_hour!X8)=0,"",COUNTIF(_tag_day_hour!A8:_tag_day_hour!X8,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C11" s="25" t="str">
+      <c r="B11" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A8:'_tag_day_hour'!X8)=0,"",COUNTIF(_tag_day_hour!A8:'_tag_day_hour'!X8,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C11" s="30" t="str">
         <f>IF(_tag_day_hour!Y8="","",_tag_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="D11" s="25" t="str">
+      <c r="D11" s="30" t="str">
         <f>IF(_tag_day_hour!Z8="","",_tag_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="E11" s="25" t="str">
+      <c r="E11" s="30" t="str">
         <f>IF(_tag_day_hour!AA8="","",_tag_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="F11" s="26" t="str">
+      <c r="F11" s="30" t="str">
         <f>IF(_tag_day_hour!AB8="","",_tag_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="G11" s="26" t="str">
+      <c r="G11" s="30" t="str">
         <f>IF(_tag_day_hour!AC8="","",_tag_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="H11" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD32:_tag_day_hour!BA32)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD32:_tag_day_hour!BA32),_tag_day_hour!AD32:_tag_day_hour!BA32,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD32:_tag_day_hour!BA32),_tag_day_hour!AD32:_tag_day_hour!BA32,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I11" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD32:_tag_day_hour!BA32)=24,"",MAX(_tag_day_hour!AD32:_tag_day_hour!BA32))</f>
-        <v/>
-      </c>
-      <c r="J11" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD32:_tag_day_hour!BA32)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD32:_tag_day_hour!BA32),_tag_day_hour!AD32:_tag_day_hour!BA32,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD32:_tag_day_hour!BA32),_tag_day_hour!AD32:_tag_day_hour!BA32,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K11" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD32:_tag_day_hour!BA32)=24,"",MIN(_tag_day_hour!AD32:_tag_day_hour!BA32))</f>
-        <v/>
-      </c>
-      <c r="L11" s="25" t="str">
+      <c r="H11" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD32:'_tag_day_hour'!BA32)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD32:'_tag_day_hour'!BA32),_tag_day_hour!AD32:'_tag_day_hour'!BA32,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD32:'_tag_day_hour'!BA32),_tag_day_hour!AD32:'_tag_day_hour'!BA32,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I11" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD32:'_tag_day_hour'!BA32)=24,"",MAX(_tag_day_hour!AD32:'_tag_day_hour'!BA32))</f>
+        <v/>
+      </c>
+      <c r="J11" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD32:'_tag_day_hour'!BA32)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD32:'_tag_day_hour'!BA32),_tag_day_hour!AD32:'_tag_day_hour'!BA32,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD32:'_tag_day_hour'!BA32),_tag_day_hour!AD32:'_tag_day_hour'!BA32,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K11" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD32:'_tag_day_hour'!BA32)=24,"",MIN(_tag_day_hour!AD32:'_tag_day_hour'!BA32))</f>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="25" t="str">
+      <c r="M11" s="41" t="str">
         <f>IF(_tag_day_hour!BB8="","",_tag_day_hour!BB8)</f>
         <v/>
       </c>
-      <c r="N11" s="25" t="str">
+      <c r="N11" s="35" t="str">
         <f>IF(_tag_day_hour!BC8="","",_tag_day_hour!BC8)</f>
         <v/>
       </c>
-      <c r="O11" s="33" t="str">
+      <c r="O11" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B8="","",_fanchui8_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="P11" s="25" t="str">
+      <c r="P11" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C8="","",_fanchui8_day_hour!C8-_fanchui8_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="Q11" s="25" t="str">
+      <c r="Q11" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D8="","",_fanchui8_day_hour!E8-_fanchui8_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="R11" s="26" t="str">
+      <c r="R11" s="30" t="str">
         <f>IF(_maxmin_day_hour!A8="","",_maxmin_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="S11" s="26" t="str">
+      <c r="S11" s="30" t="str">
         <f>IF(_maxmin_day_hour!B8="","",_maxmin_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="T11" s="38"/>
+      <c r="T11" s="48"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="23">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A9:_tag_day_hour!X9)=0,"",COUNTIF(_tag_day_hour!A9:_tag_day_hour!X9,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C12" s="25" t="str">
+      <c r="B12" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A9:'_tag_day_hour'!X9)=0,"",COUNTIF(_tag_day_hour!A9:'_tag_day_hour'!X9,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C12" s="30" t="str">
         <f>IF(_tag_day_hour!Y9="","",_tag_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="D12" s="25" t="str">
+      <c r="D12" s="30" t="str">
         <f>IF(_tag_day_hour!Z9="","",_tag_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="E12" s="25" t="str">
+      <c r="E12" s="30" t="str">
         <f>IF(_tag_day_hour!AA9="","",_tag_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="F12" s="26" t="str">
+      <c r="F12" s="30" t="str">
         <f>IF(_tag_day_hour!AB9="","",_tag_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="G12" s="26" t="str">
+      <c r="G12" s="30" t="str">
         <f>IF(_tag_day_hour!AC9="","",_tag_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="H12" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD33:_tag_day_hour!BA33)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD33:_tag_day_hour!BA33),_tag_day_hour!AD33:_tag_day_hour!BA33,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD33:_tag_day_hour!BA33),_tag_day_hour!AD33:_tag_day_hour!BA33,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I12" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD33:_tag_day_hour!BA33)=24,"",MAX(_tag_day_hour!AD33:_tag_day_hour!BA33))</f>
-        <v/>
-      </c>
-      <c r="J12" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD33:_tag_day_hour!BA33)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD33:_tag_day_hour!BA33),_tag_day_hour!AD33:_tag_day_hour!BA33,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD33:_tag_day_hour!BA33),_tag_day_hour!AD33:_tag_day_hour!BA33,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K12" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD33:_tag_day_hour!BA33)=24,"",MIN(_tag_day_hour!AD33:_tag_day_hour!BA33))</f>
-        <v/>
-      </c>
-      <c r="L12" s="25" t="str">
+      <c r="H12" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD33:'_tag_day_hour'!BA33)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD33:'_tag_day_hour'!BA33),_tag_day_hour!AD33:'_tag_day_hour'!BA33,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD33:'_tag_day_hour'!BA33),_tag_day_hour!AD33:'_tag_day_hour'!BA33,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I12" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD33:'_tag_day_hour'!BA33)=24,"",MAX(_tag_day_hour!AD33:'_tag_day_hour'!BA33))</f>
+        <v/>
+      </c>
+      <c r="J12" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD33:'_tag_day_hour'!BA33)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD33:'_tag_day_hour'!BA33),_tag_day_hour!AD33:'_tag_day_hour'!BA33,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD33:'_tag_day_hour'!BA33),_tag_day_hour!AD33:'_tag_day_hour'!BA33,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K12" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD33:'_tag_day_hour'!BA33)=24,"",MIN(_tag_day_hour!AD33:'_tag_day_hour'!BA33))</f>
+        <v/>
+      </c>
+      <c r="L12" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="25" t="str">
+      <c r="M12" s="41" t="str">
         <f>IF(_tag_day_hour!BB9="","",_tag_day_hour!BB9)</f>
         <v/>
       </c>
-      <c r="N12" s="25" t="str">
+      <c r="N12" s="35" t="str">
         <f>IF(_tag_day_hour!BC9="","",_tag_day_hour!BC9)</f>
         <v/>
       </c>
-      <c r="O12" s="33" t="str">
+      <c r="O12" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B9="","",_fanchui8_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="P12" s="25" t="str">
+      <c r="P12" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C9="","",_fanchui8_day_hour!C9-_fanchui8_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="Q12" s="25" t="str">
+      <c r="Q12" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D9="","",_fanchui8_day_hour!E9-_fanchui8_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="R12" s="26" t="str">
+      <c r="R12" s="30" t="str">
         <f>IF(_maxmin_day_hour!A9="","",_maxmin_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="S12" s="26" t="str">
+      <c r="S12" s="30" t="str">
         <f>IF(_maxmin_day_hour!B9="","",_maxmin_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="T12" s="38"/>
+      <c r="T12" s="48"/>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="23">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A10:_tag_day_hour!X10)=0,"",COUNTIF(_tag_day_hour!A10:_tag_day_hour!X10,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C13" s="25" t="str">
+      <c r="B13" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A10:'_tag_day_hour'!X10)=0,"",COUNTIF(_tag_day_hour!A10:'_tag_day_hour'!X10,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C13" s="30" t="str">
         <f>IF(_tag_day_hour!Y10="","",_tag_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="30" t="str">
         <f>IF(_tag_day_hour!Z10="","",_tag_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="30" t="str">
         <f>IF(_tag_day_hour!AA10="","",_tag_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="F13" s="26" t="str">
+      <c r="F13" s="30" t="str">
         <f>IF(_tag_day_hour!AB10="","",_tag_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="G13" s="26" t="str">
+      <c r="G13" s="30" t="str">
         <f>IF(_tag_day_hour!AC10="","",_tag_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="H13" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD34:_tag_day_hour!BA34)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD34:_tag_day_hour!BA34),_tag_day_hour!AD34:_tag_day_hour!BA34,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD34:_tag_day_hour!BA34),_tag_day_hour!AD34:_tag_day_hour!BA34,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I13" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD34:_tag_day_hour!BA34)=24,"",MAX(_tag_day_hour!AD34:_tag_day_hour!BA34))</f>
-        <v/>
-      </c>
-      <c r="J13" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD34:_tag_day_hour!BA34)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD34:_tag_day_hour!BA34),_tag_day_hour!AD34:_tag_day_hour!BA34,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD34:_tag_day_hour!BA34),_tag_day_hour!AD34:_tag_day_hour!BA34,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K13" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD34:_tag_day_hour!BA34)=24,"",MIN(_tag_day_hour!AD34:_tag_day_hour!BA34))</f>
-        <v/>
-      </c>
-      <c r="L13" s="25" t="str">
+      <c r="H13" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD34:'_tag_day_hour'!BA34)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD34:'_tag_day_hour'!BA34),_tag_day_hour!AD34:'_tag_day_hour'!BA34,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD34:'_tag_day_hour'!BA34),_tag_day_hour!AD34:'_tag_day_hour'!BA34,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I13" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD34:'_tag_day_hour'!BA34)=24,"",MAX(_tag_day_hour!AD34:'_tag_day_hour'!BA34))</f>
+        <v/>
+      </c>
+      <c r="J13" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD34:'_tag_day_hour'!BA34)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD34:'_tag_day_hour'!BA34),_tag_day_hour!AD34:'_tag_day_hour'!BA34,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD34:'_tag_day_hour'!BA34),_tag_day_hour!AD34:'_tag_day_hour'!BA34,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K13" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD34:'_tag_day_hour'!BA34)=24,"",MIN(_tag_day_hour!AD34:'_tag_day_hour'!BA34))</f>
+        <v/>
+      </c>
+      <c r="L13" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="25" t="str">
+      <c r="M13" s="41" t="str">
         <f>IF(_tag_day_hour!BB10="","",_tag_day_hour!BB10)</f>
         <v/>
       </c>
-      <c r="N13" s="25" t="str">
+      <c r="N13" s="35" t="str">
         <f>IF(_tag_day_hour!BC10="","",_tag_day_hour!BC10)</f>
         <v/>
       </c>
-      <c r="O13" s="33" t="str">
+      <c r="O13" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B10="","",_fanchui8_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="P13" s="25" t="str">
+      <c r="P13" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C10="","",_fanchui8_day_hour!C10-_fanchui8_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="Q13" s="25" t="str">
+      <c r="Q13" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D10="","",_fanchui8_day_hour!E10-_fanchui8_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="R13" s="26" t="str">
+      <c r="R13" s="30" t="str">
         <f>IF(_maxmin_day_hour!A10="","",_maxmin_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="S13" s="26" t="str">
+      <c r="S13" s="30" t="str">
         <f>IF(_maxmin_day_hour!B10="","",_maxmin_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="T13" s="37" t="s">
+      <c r="T13" s="47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="23">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A11:_tag_day_hour!X11)=0,"",COUNTIF(_tag_day_hour!A11:_tag_day_hour!X11,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C14" s="25" t="str">
+      <c r="B14" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A11:'_tag_day_hour'!X11)=0,"",COUNTIF(_tag_day_hour!A11:'_tag_day_hour'!X11,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C14" s="30" t="str">
         <f>IF(_tag_day_hour!Y11="","",_tag_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="D14" s="25" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_tag_day_hour!Z11="","",_tag_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="E14" s="25" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_tag_day_hour!AA11="","",_tag_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="F14" s="26" t="str">
+      <c r="F14" s="30" t="str">
         <f>IF(_tag_day_hour!AB11="","",_tag_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_tag_day_hour!AC11="","",_tag_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="H14" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD35:_tag_day_hour!BA35)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD35:_tag_day_hour!BA35),_tag_day_hour!AD35:_tag_day_hour!BA35,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD35:_tag_day_hour!BA35),_tag_day_hour!AD35:_tag_day_hour!BA35,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I14" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD35:_tag_day_hour!BA35)=24,"",MAX(_tag_day_hour!AD35:_tag_day_hour!BA35))</f>
-        <v/>
-      </c>
-      <c r="J14" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD35:_tag_day_hour!BA35)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD35:_tag_day_hour!BA35),_tag_day_hour!AD35:_tag_day_hour!BA35,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD35:_tag_day_hour!BA35),_tag_day_hour!AD35:_tag_day_hour!BA35,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K14" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD35:_tag_day_hour!BA35)=24,"",MIN(_tag_day_hour!AD35:_tag_day_hour!BA35))</f>
-        <v/>
-      </c>
-      <c r="L14" s="25" t="str">
+      <c r="H14" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD35:'_tag_day_hour'!BA35)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD35:'_tag_day_hour'!BA35),_tag_day_hour!AD35:'_tag_day_hour'!BA35,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD35:'_tag_day_hour'!BA35),_tag_day_hour!AD35:'_tag_day_hour'!BA35,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I14" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD35:'_tag_day_hour'!BA35)=24,"",MAX(_tag_day_hour!AD35:'_tag_day_hour'!BA35))</f>
+        <v/>
+      </c>
+      <c r="J14" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD35:'_tag_day_hour'!BA35)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD35:'_tag_day_hour'!BA35),_tag_day_hour!AD35:'_tag_day_hour'!BA35,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD35:'_tag_day_hour'!BA35),_tag_day_hour!AD35:'_tag_day_hour'!BA35,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K14" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD35:'_tag_day_hour'!BA35)=24,"",MIN(_tag_day_hour!AD35:'_tag_day_hour'!BA35))</f>
+        <v/>
+      </c>
+      <c r="L14" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="25" t="str">
+      <c r="M14" s="41" t="str">
         <f>IF(_tag_day_hour!BB11="","",_tag_day_hour!BB11)</f>
         <v/>
       </c>
-      <c r="N14" s="25" t="str">
+      <c r="N14" s="35" t="str">
         <f>IF(_tag_day_hour!BC11="","",_tag_day_hour!BC11)</f>
         <v/>
       </c>
-      <c r="O14" s="33" t="str">
+      <c r="O14" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B11="","",_fanchui8_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="P14" s="25" t="str">
+      <c r="P14" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C11="","",_fanchui8_day_hour!C11-_fanchui8_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="Q14" s="25" t="str">
+      <c r="Q14" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D11="","",_fanchui8_day_hour!E11-_fanchui8_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="R14" s="26" t="str">
+      <c r="R14" s="30" t="str">
         <f>IF(_maxmin_day_hour!A11="","",_maxmin_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="S14" s="26" t="str">
+      <c r="S14" s="30" t="str">
         <f>IF(_maxmin_day_hour!B11="","",_maxmin_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="T14" s="38"/>
+      <c r="T14" s="48"/>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="23">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A12:_tag_day_hour!X12)=0,"",COUNTIF(_tag_day_hour!A12:_tag_day_hour!X12,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C15" s="25" t="str">
+      <c r="B15" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A12:'_tag_day_hour'!X12)=0,"",COUNTIF(_tag_day_hour!A12:'_tag_day_hour'!X12,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C15" s="30" t="str">
         <f>IF(_tag_day_hour!Y12="","",_tag_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="str">
+      <c r="D15" s="30" t="str">
         <f>IF(_tag_day_hour!Z12="","",_tag_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="E15" s="25" t="str">
+      <c r="E15" s="30" t="str">
         <f>IF(_tag_day_hour!AA12="","",_tag_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="F15" s="26" t="str">
+      <c r="F15" s="30" t="str">
         <f>IF(_tag_day_hour!AB12="","",_tag_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="G15" s="26" t="str">
+      <c r="G15" s="30" t="str">
         <f>IF(_tag_day_hour!AC12="","",_tag_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="H15" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD36:_tag_day_hour!BA36)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD36:_tag_day_hour!BA36),_tag_day_hour!AD36:_tag_day_hour!BA36,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD36:_tag_day_hour!BA36),_tag_day_hour!AD36:_tag_day_hour!BA36,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I15" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD36:_tag_day_hour!BA36)=24,"",MAX(_tag_day_hour!AD36:_tag_day_hour!BA36))</f>
-        <v/>
-      </c>
-      <c r="J15" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD36:_tag_day_hour!BA36)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD36:_tag_day_hour!BA36),_tag_day_hour!AD36:_tag_day_hour!BA36,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD36:_tag_day_hour!BA36),_tag_day_hour!AD36:_tag_day_hour!BA36,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K15" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD36:_tag_day_hour!BA36)=24,"",MIN(_tag_day_hour!AD36:_tag_day_hour!BA36))</f>
-        <v/>
-      </c>
-      <c r="L15" s="25" t="str">
+      <c r="H15" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD36:'_tag_day_hour'!BA36)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD36:'_tag_day_hour'!BA36),_tag_day_hour!AD36:'_tag_day_hour'!BA36,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD36:'_tag_day_hour'!BA36),_tag_day_hour!AD36:'_tag_day_hour'!BA36,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I15" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD36:'_tag_day_hour'!BA36)=24,"",MAX(_tag_day_hour!AD36:'_tag_day_hour'!BA36))</f>
+        <v/>
+      </c>
+      <c r="J15" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD36:'_tag_day_hour'!BA36)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD36:'_tag_day_hour'!BA36),_tag_day_hour!AD36:'_tag_day_hour'!BA36,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD36:'_tag_day_hour'!BA36),_tag_day_hour!AD36:'_tag_day_hour'!BA36,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K15" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD36:'_tag_day_hour'!BA36)=24,"",MIN(_tag_day_hour!AD36:'_tag_day_hour'!BA36))</f>
+        <v/>
+      </c>
+      <c r="L15" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M15" s="25" t="str">
+      <c r="M15" s="41" t="str">
         <f>IF(_tag_day_hour!BB12="","",_tag_day_hour!BB12)</f>
         <v/>
       </c>
-      <c r="N15" s="25" t="str">
+      <c r="N15" s="35" t="str">
         <f>IF(_tag_day_hour!BC12="","",_tag_day_hour!BC12)</f>
         <v/>
       </c>
-      <c r="O15" s="33" t="str">
+      <c r="O15" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B12="","",_fanchui8_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="P15" s="25" t="str">
+      <c r="P15" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C12="","",_fanchui8_day_hour!C12-_fanchui8_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="Q15" s="25" t="str">
+      <c r="Q15" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D12="","",_fanchui8_day_hour!E12-_fanchui8_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="R15" s="26" t="str">
+      <c r="R15" s="30" t="str">
         <f>IF(_maxmin_day_hour!A12="","",_maxmin_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="S15" s="26" t="str">
+      <c r="S15" s="30" t="str">
         <f>IF(_maxmin_day_hour!B12="","",_maxmin_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="T15" s="38"/>
+      <c r="T15" s="48"/>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="23">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A13:_tag_day_hour!X13)=0,"",COUNTIF(_tag_day_hour!A13:_tag_day_hour!X13,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C16" s="25" t="str">
+      <c r="B16" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A13:'_tag_day_hour'!X13)=0,"",COUNTIF(_tag_day_hour!A13:'_tag_day_hour'!X13,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C16" s="30" t="str">
         <f>IF(_tag_day_hour!Y13="","",_tag_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="D16" s="25" t="str">
+      <c r="D16" s="30" t="str">
         <f>IF(_tag_day_hour!Z13="","",_tag_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="E16" s="25" t="str">
+      <c r="E16" s="30" t="str">
         <f>IF(_tag_day_hour!AA13="","",_tag_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="F16" s="26" t="str">
+      <c r="F16" s="30" t="str">
         <f>IF(_tag_day_hour!AB13="","",_tag_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="G16" s="26" t="str">
+      <c r="G16" s="30" t="str">
         <f>IF(_tag_day_hour!AC13="","",_tag_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="H16" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD37:_tag_day_hour!BA37)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD37:_tag_day_hour!BA37),_tag_day_hour!AD37:_tag_day_hour!BA37,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD37:_tag_day_hour!BA37),_tag_day_hour!AD37:_tag_day_hour!BA37,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I16" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD37:_tag_day_hour!BA37)=24,"",MAX(_tag_day_hour!AD37:_tag_day_hour!BA37))</f>
-        <v/>
-      </c>
-      <c r="J16" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD37:_tag_day_hour!BA37)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD37:_tag_day_hour!BA37),_tag_day_hour!AD37:_tag_day_hour!BA37,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD37:_tag_day_hour!BA37),_tag_day_hour!AD37:_tag_day_hour!BA37,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K16" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD37:_tag_day_hour!BA37)=24,"",MIN(_tag_day_hour!AD37:_tag_day_hour!BA37))</f>
-        <v/>
-      </c>
-      <c r="L16" s="25" t="str">
+      <c r="H16" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD37:'_tag_day_hour'!BA37)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD37:'_tag_day_hour'!BA37),_tag_day_hour!AD37:'_tag_day_hour'!BA37,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD37:'_tag_day_hour'!BA37),_tag_day_hour!AD37:'_tag_day_hour'!BA37,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I16" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD37:'_tag_day_hour'!BA37)=24,"",MAX(_tag_day_hour!AD37:'_tag_day_hour'!BA37))</f>
+        <v/>
+      </c>
+      <c r="J16" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD37:'_tag_day_hour'!BA37)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD37:'_tag_day_hour'!BA37),_tag_day_hour!AD37:'_tag_day_hour'!BA37,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD37:'_tag_day_hour'!BA37),_tag_day_hour!AD37:'_tag_day_hour'!BA37,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K16" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD37:'_tag_day_hour'!BA37)=24,"",MIN(_tag_day_hour!AD37:'_tag_day_hour'!BA37))</f>
+        <v/>
+      </c>
+      <c r="L16" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M16" s="25" t="str">
+      <c r="M16" s="41" t="str">
         <f>IF(_tag_day_hour!BB13="","",_tag_day_hour!BB13)</f>
         <v/>
       </c>
-      <c r="N16" s="25" t="str">
+      <c r="N16" s="35" t="str">
         <f>IF(_tag_day_hour!BC13="","",_tag_day_hour!BC13)</f>
         <v/>
       </c>
-      <c r="O16" s="33" t="str">
+      <c r="O16" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B13="","",_fanchui8_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="P16" s="25" t="str">
+      <c r="P16" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C13="","",_fanchui8_day_hour!C13-_fanchui8_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="Q16" s="25" t="str">
+      <c r="Q16" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D13="","",_fanchui8_day_hour!E13-_fanchui8_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="R16" s="26" t="str">
+      <c r="R16" s="30" t="str">
         <f>IF(_maxmin_day_hour!A13="","",_maxmin_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="S16" s="26" t="str">
+      <c r="S16" s="30" t="str">
         <f>IF(_maxmin_day_hour!B13="","",_maxmin_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="T16" s="38"/>
+      <c r="T16" s="48"/>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="23">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A14:_tag_day_hour!X14)=0,"",COUNTIF(_tag_day_hour!A14:_tag_day_hour!X14,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C17" s="25" t="str">
+      <c r="B17" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A14:'_tag_day_hour'!X14)=0,"",COUNTIF(_tag_day_hour!A14:'_tag_day_hour'!X14,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C17" s="30" t="str">
         <f>IF(_tag_day_hour!Y14="","",_tag_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="D17" s="25" t="str">
+      <c r="D17" s="30" t="str">
         <f>IF(_tag_day_hour!Z14="","",_tag_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="E17" s="25" t="str">
+      <c r="E17" s="30" t="str">
         <f>IF(_tag_day_hour!AA14="","",_tag_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="F17" s="26" t="str">
+      <c r="F17" s="30" t="str">
         <f>IF(_tag_day_hour!AB14="","",_tag_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="G17" s="26" t="str">
+      <c r="G17" s="30" t="str">
         <f>IF(_tag_day_hour!AC14="","",_tag_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="H17" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD38:_tag_day_hour!BA38)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD38:_tag_day_hour!BA38),_tag_day_hour!AD38:_tag_day_hour!BA38,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD38:_tag_day_hour!BA38),_tag_day_hour!AD38:_tag_day_hour!BA38,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I17" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD38:_tag_day_hour!BA38)=24,"",MAX(_tag_day_hour!AD38:_tag_day_hour!BA38))</f>
-        <v/>
-      </c>
-      <c r="J17" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD38:_tag_day_hour!BA38)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD38:_tag_day_hour!BA38),_tag_day_hour!AD38:_tag_day_hour!BA38,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD38:_tag_day_hour!BA38),_tag_day_hour!AD38:_tag_day_hour!BA38,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K17" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD38:_tag_day_hour!BA38)=24,"",MIN(_tag_day_hour!AD38:_tag_day_hour!BA38))</f>
-        <v/>
-      </c>
-      <c r="L17" s="25" t="str">
+      <c r="H17" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD38:'_tag_day_hour'!BA38)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD38:'_tag_day_hour'!BA38),_tag_day_hour!AD38:'_tag_day_hour'!BA38,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD38:'_tag_day_hour'!BA38),_tag_day_hour!AD38:'_tag_day_hour'!BA38,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I17" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD38:'_tag_day_hour'!BA38)=24,"",MAX(_tag_day_hour!AD38:'_tag_day_hour'!BA38))</f>
+        <v/>
+      </c>
+      <c r="J17" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD38:'_tag_day_hour'!BA38)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD38:'_tag_day_hour'!BA38),_tag_day_hour!AD38:'_tag_day_hour'!BA38,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD38:'_tag_day_hour'!BA38),_tag_day_hour!AD38:'_tag_day_hour'!BA38,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K17" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD38:'_tag_day_hour'!BA38)=24,"",MIN(_tag_day_hour!AD38:'_tag_day_hour'!BA38))</f>
+        <v/>
+      </c>
+      <c r="L17" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M17" s="25" t="str">
+      <c r="M17" s="41" t="str">
         <f>IF(_tag_day_hour!BB14="","",_tag_day_hour!BB14)</f>
         <v/>
       </c>
-      <c r="N17" s="25" t="str">
+      <c r="N17" s="35" t="str">
         <f>IF(_tag_day_hour!BC14="","",_tag_day_hour!BC14)</f>
         <v/>
       </c>
-      <c r="O17" s="33" t="str">
+      <c r="O17" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B14="","",_fanchui8_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="P17" s="25" t="str">
+      <c r="P17" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C14="","",_fanchui8_day_hour!C14-_fanchui8_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="Q17" s="25" t="str">
+      <c r="Q17" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D14="","",_fanchui8_day_hour!E14-_fanchui8_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="R17" s="26" t="str">
+      <c r="R17" s="30" t="str">
         <f>IF(_maxmin_day_hour!A14="","",_maxmin_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="S17" s="26" t="str">
+      <c r="S17" s="30" t="str">
         <f>IF(_maxmin_day_hour!B14="","",_maxmin_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="T17" s="38"/>
+      <c r="T17" s="48"/>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="23">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A15:_tag_day_hour!X15)=0,"",COUNTIF(_tag_day_hour!A15:_tag_day_hour!X15,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C18" s="25" t="str">
+      <c r="B18" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A15:'_tag_day_hour'!X15)=0,"",COUNTIF(_tag_day_hour!A15:'_tag_day_hour'!X15,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C18" s="30" t="str">
         <f>IF(_tag_day_hour!Y15="","",_tag_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="D18" s="25" t="str">
+      <c r="D18" s="30" t="str">
         <f>IF(_tag_day_hour!Z15="","",_tag_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="E18" s="25" t="str">
+      <c r="E18" s="30" t="str">
         <f>IF(_tag_day_hour!AA15="","",_tag_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="F18" s="26" t="str">
+      <c r="F18" s="30" t="str">
         <f>IF(_tag_day_hour!AB15="","",_tag_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="G18" s="26" t="str">
+      <c r="G18" s="30" t="str">
         <f>IF(_tag_day_hour!AC15="","",_tag_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="H18" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD39:_tag_day_hour!BA39)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD39:_tag_day_hour!BA39),_tag_day_hour!AD39:_tag_day_hour!BA39,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD39:_tag_day_hour!BA39),_tag_day_hour!AD39:_tag_day_hour!BA39,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I18" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD39:_tag_day_hour!BA39)=24,"",MAX(_tag_day_hour!AD39:_tag_day_hour!BA39))</f>
-        <v/>
-      </c>
-      <c r="J18" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD39:_tag_day_hour!BA39)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD39:_tag_day_hour!BA39),_tag_day_hour!AD39:_tag_day_hour!BA39,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD39:_tag_day_hour!BA39),_tag_day_hour!AD39:_tag_day_hour!BA39,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K18" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD39:_tag_day_hour!BA39)=24,"",MIN(_tag_day_hour!AD39:_tag_day_hour!BA39))</f>
-        <v/>
-      </c>
-      <c r="L18" s="25" t="str">
+      <c r="H18" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD39:'_tag_day_hour'!BA39)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD39:'_tag_day_hour'!BA39),_tag_day_hour!AD39:'_tag_day_hour'!BA39,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD39:'_tag_day_hour'!BA39),_tag_day_hour!AD39:'_tag_day_hour'!BA39,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I18" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD39:'_tag_day_hour'!BA39)=24,"",MAX(_tag_day_hour!AD39:'_tag_day_hour'!BA39))</f>
+        <v/>
+      </c>
+      <c r="J18" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD39:'_tag_day_hour'!BA39)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD39:'_tag_day_hour'!BA39),_tag_day_hour!AD39:'_tag_day_hour'!BA39,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD39:'_tag_day_hour'!BA39),_tag_day_hour!AD39:'_tag_day_hour'!BA39,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K18" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD39:'_tag_day_hour'!BA39)=24,"",MIN(_tag_day_hour!AD39:'_tag_day_hour'!BA39))</f>
+        <v/>
+      </c>
+      <c r="L18" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M18" s="25" t="str">
+      <c r="M18" s="41" t="str">
         <f>IF(_tag_day_hour!BB15="","",_tag_day_hour!BB15)</f>
         <v/>
       </c>
-      <c r="N18" s="25" t="str">
+      <c r="N18" s="35" t="str">
         <f>IF(_tag_day_hour!BC15="","",_tag_day_hour!BC15)</f>
         <v/>
       </c>
-      <c r="O18" s="33" t="str">
+      <c r="O18" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B15="","",_fanchui8_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="P18" s="25" t="str">
+      <c r="P18" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C15="","",_fanchui8_day_hour!C15-_fanchui8_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="Q18" s="25" t="str">
+      <c r="Q18" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D15="","",_fanchui8_day_hour!E15-_fanchui8_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="R18" s="26" t="str">
+      <c r="R18" s="30" t="str">
         <f>IF(_maxmin_day_hour!A15="","",_maxmin_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="S18" s="26" t="str">
+      <c r="S18" s="30" t="str">
         <f>IF(_maxmin_day_hour!B15="","",_maxmin_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="T18" s="38"/>
+      <c r="T18" s="48"/>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="23">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A16:_tag_day_hour!X16)=0,"",COUNTIF(_tag_day_hour!A16:_tag_day_hour!X16,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C19" s="25" t="str">
+      <c r="B19" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A16:'_tag_day_hour'!X16)=0,"",COUNTIF(_tag_day_hour!A16:'_tag_day_hour'!X16,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C19" s="30" t="str">
         <f>IF(_tag_day_hour!Y16="","",_tag_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="D19" s="25" t="str">
+      <c r="D19" s="30" t="str">
         <f>IF(_tag_day_hour!Z16="","",_tag_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="E19" s="25" t="str">
+      <c r="E19" s="30" t="str">
         <f>IF(_tag_day_hour!AA16="","",_tag_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="F19" s="26" t="str">
+      <c r="F19" s="30" t="str">
         <f>IF(_tag_day_hour!AB16="","",_tag_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="G19" s="26" t="str">
+      <c r="G19" s="30" t="str">
         <f>IF(_tag_day_hour!AC16="","",_tag_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="H19" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD40:_tag_day_hour!BA40)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD40:_tag_day_hour!BA40),_tag_day_hour!AD40:_tag_day_hour!BA40,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD40:_tag_day_hour!BA40),_tag_day_hour!AD40:_tag_day_hour!BA40,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I19" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD40:_tag_day_hour!BA40)=24,"",MAX(_tag_day_hour!AD40:_tag_day_hour!BA40))</f>
-        <v/>
-      </c>
-      <c r="J19" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD40:_tag_day_hour!BA40)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD40:_tag_day_hour!BA40),_tag_day_hour!AD40:_tag_day_hour!BA40,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD40:_tag_day_hour!BA40),_tag_day_hour!AD40:_tag_day_hour!BA40,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K19" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD40:_tag_day_hour!BA40)=24,"",MIN(_tag_day_hour!AD40:_tag_day_hour!BA40))</f>
-        <v/>
-      </c>
-      <c r="L19" s="25" t="str">
+      <c r="H19" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD40:'_tag_day_hour'!BA40)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD40:'_tag_day_hour'!BA40),_tag_day_hour!AD40:'_tag_day_hour'!BA40,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD40:'_tag_day_hour'!BA40),_tag_day_hour!AD40:'_tag_day_hour'!BA40,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I19" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD40:'_tag_day_hour'!BA40)=24,"",MAX(_tag_day_hour!AD40:'_tag_day_hour'!BA40))</f>
+        <v/>
+      </c>
+      <c r="J19" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD40:'_tag_day_hour'!BA40)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD40:'_tag_day_hour'!BA40),_tag_day_hour!AD40:'_tag_day_hour'!BA40,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD40:'_tag_day_hour'!BA40),_tag_day_hour!AD40:'_tag_day_hour'!BA40,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K19" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD40:'_tag_day_hour'!BA40)=24,"",MIN(_tag_day_hour!AD40:'_tag_day_hour'!BA40))</f>
+        <v/>
+      </c>
+      <c r="L19" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M19" s="25" t="str">
+      <c r="M19" s="41" t="str">
         <f>IF(_tag_day_hour!BB16="","",_tag_day_hour!BB16)</f>
         <v/>
       </c>
-      <c r="N19" s="25" t="str">
+      <c r="N19" s="35" t="str">
         <f>IF(_tag_day_hour!BC16="","",_tag_day_hour!BC16)</f>
         <v/>
       </c>
-      <c r="O19" s="33" t="str">
+      <c r="O19" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B16="","",_fanchui8_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="P19" s="25" t="str">
+      <c r="P19" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C16="","",_fanchui8_day_hour!C16-_fanchui8_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="Q19" s="25" t="str">
+      <c r="Q19" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D16="","",_fanchui8_day_hour!E16-_fanchui8_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="R19" s="26" t="str">
+      <c r="R19" s="30" t="str">
         <f>IF(_maxmin_day_hour!A16="","",_maxmin_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="S19" s="26" t="str">
+      <c r="S19" s="30" t="str">
         <f>IF(_maxmin_day_hour!B16="","",_maxmin_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="T19" s="38"/>
+      <c r="T19" s="48"/>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="23">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A17:_tag_day_hour!X17)=0,"",COUNTIF(_tag_day_hour!A17:_tag_day_hour!X17,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C20" s="25" t="str">
+      <c r="B20" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A17:'_tag_day_hour'!X17)=0,"",COUNTIF(_tag_day_hour!A17:'_tag_day_hour'!X17,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C20" s="30" t="str">
         <f>IF(_tag_day_hour!Y17="","",_tag_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="D20" s="25" t="str">
+      <c r="D20" s="30" t="str">
         <f>IF(_tag_day_hour!Z17="","",_tag_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="E20" s="25" t="str">
+      <c r="E20" s="30" t="str">
         <f>IF(_tag_day_hour!AA17="","",_tag_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="F20" s="26" t="str">
+      <c r="F20" s="30" t="str">
         <f>IF(_tag_day_hour!AB17="","",_tag_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="G20" s="26" t="str">
+      <c r="G20" s="30" t="str">
         <f>IF(_tag_day_hour!AC17="","",_tag_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="H20" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD41:_tag_day_hour!BA41)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD41:_tag_day_hour!BA41),_tag_day_hour!AD41:_tag_day_hour!BA41,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD41:_tag_day_hour!BA41),_tag_day_hour!AD41:_tag_day_hour!BA41,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I20" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD41:_tag_day_hour!BA41)=24,"",MAX(_tag_day_hour!AD41:_tag_day_hour!BA41))</f>
-        <v/>
-      </c>
-      <c r="J20" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD41:_tag_day_hour!BA41)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD41:_tag_day_hour!BA41),_tag_day_hour!AD41:_tag_day_hour!BA41,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD41:_tag_day_hour!BA41),_tag_day_hour!AD41:_tag_day_hour!BA41,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K20" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD41:_tag_day_hour!BA41)=24,"",MIN(_tag_day_hour!AD41:_tag_day_hour!BA41))</f>
-        <v/>
-      </c>
-      <c r="L20" s="25" t="str">
+      <c r="H20" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD41:'_tag_day_hour'!BA41)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD41:'_tag_day_hour'!BA41),_tag_day_hour!AD41:'_tag_day_hour'!BA41,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD41:'_tag_day_hour'!BA41),_tag_day_hour!AD41:'_tag_day_hour'!BA41,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I20" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD41:'_tag_day_hour'!BA41)=24,"",MAX(_tag_day_hour!AD41:'_tag_day_hour'!BA41))</f>
+        <v/>
+      </c>
+      <c r="J20" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD41:'_tag_day_hour'!BA41)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD41:'_tag_day_hour'!BA41),_tag_day_hour!AD41:'_tag_day_hour'!BA41,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD41:'_tag_day_hour'!BA41),_tag_day_hour!AD41:'_tag_day_hour'!BA41,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K20" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD41:'_tag_day_hour'!BA41)=24,"",MIN(_tag_day_hour!AD41:'_tag_day_hour'!BA41))</f>
+        <v/>
+      </c>
+      <c r="L20" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M20" s="25" t="str">
+      <c r="M20" s="41" t="str">
         <f>IF(_tag_day_hour!BB17="","",_tag_day_hour!BB17)</f>
         <v/>
       </c>
-      <c r="N20" s="25" t="str">
+      <c r="N20" s="35" t="str">
         <f>IF(_tag_day_hour!BC17="","",_tag_day_hour!BC17)</f>
         <v/>
       </c>
-      <c r="O20" s="33" t="str">
+      <c r="O20" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B17="","",_fanchui8_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="P20" s="25" t="str">
+      <c r="P20" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C17="","",_fanchui8_day_hour!C17-_fanchui8_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="Q20" s="25" t="str">
+      <c r="Q20" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D17="","",_fanchui8_day_hour!E17-_fanchui8_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="R20" s="26" t="str">
+      <c r="R20" s="30" t="str">
         <f>IF(_maxmin_day_hour!A17="","",_maxmin_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="S20" s="26" t="str">
+      <c r="S20" s="30" t="str">
         <f>IF(_maxmin_day_hour!B17="","",_maxmin_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="T20" s="38"/>
+      <c r="T20" s="48"/>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="23">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A18:_tag_day_hour!X18)=0,"",COUNTIF(_tag_day_hour!A18:_tag_day_hour!X18,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C21" s="25" t="str">
+      <c r="B21" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A18:'_tag_day_hour'!X18)=0,"",COUNTIF(_tag_day_hour!A18:'_tag_day_hour'!X18,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C21" s="30" t="str">
         <f>IF(_tag_day_hour!Y18="","",_tag_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="D21" s="25" t="str">
+      <c r="D21" s="30" t="str">
         <f>IF(_tag_day_hour!Z18="","",_tag_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="E21" s="25" t="str">
+      <c r="E21" s="30" t="str">
         <f>IF(_tag_day_hour!AA18="","",_tag_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="F21" s="26" t="str">
+      <c r="F21" s="30" t="str">
         <f>IF(_tag_day_hour!AB18="","",_tag_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="G21" s="26" t="str">
+      <c r="G21" s="30" t="str">
         <f>IF(_tag_day_hour!AC18="","",_tag_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="H21" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD42:_tag_day_hour!BA42)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD42:_tag_day_hour!BA42),_tag_day_hour!AD42:_tag_day_hour!BA42,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD42:_tag_day_hour!BA42),_tag_day_hour!AD42:_tag_day_hour!BA42,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I21" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD42:_tag_day_hour!BA42)=24,"",MAX(_tag_day_hour!AD42:_tag_day_hour!BA42))</f>
-        <v/>
-      </c>
-      <c r="J21" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD42:_tag_day_hour!BA42)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD42:_tag_day_hour!BA42),_tag_day_hour!AD42:_tag_day_hour!BA42,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD42:_tag_day_hour!BA42),_tag_day_hour!AD42:_tag_day_hour!BA42,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K21" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD42:_tag_day_hour!BA42)=24,"",MIN(_tag_day_hour!AD42:_tag_day_hour!BA42))</f>
-        <v/>
-      </c>
-      <c r="L21" s="25" t="str">
+      <c r="H21" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD42:'_tag_day_hour'!BA42)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD42:'_tag_day_hour'!BA42),_tag_day_hour!AD42:'_tag_day_hour'!BA42,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD42:'_tag_day_hour'!BA42),_tag_day_hour!AD42:'_tag_day_hour'!BA42,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I21" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD42:'_tag_day_hour'!BA42)=24,"",MAX(_tag_day_hour!AD42:'_tag_day_hour'!BA42))</f>
+        <v/>
+      </c>
+      <c r="J21" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD42:'_tag_day_hour'!BA42)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD42:'_tag_day_hour'!BA42),_tag_day_hour!AD42:'_tag_day_hour'!BA42,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD42:'_tag_day_hour'!BA42),_tag_day_hour!AD42:'_tag_day_hour'!BA42,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K21" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD42:'_tag_day_hour'!BA42)=24,"",MIN(_tag_day_hour!AD42:'_tag_day_hour'!BA42))</f>
+        <v/>
+      </c>
+      <c r="L21" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M21" s="25" t="str">
+      <c r="M21" s="41" t="str">
         <f>IF(_tag_day_hour!BB18="","",_tag_day_hour!BB18)</f>
         <v/>
       </c>
-      <c r="N21" s="25" t="str">
+      <c r="N21" s="35" t="str">
         <f>IF(_tag_day_hour!BC18="","",_tag_day_hour!BC18)</f>
         <v/>
       </c>
-      <c r="O21" s="33" t="str">
+      <c r="O21" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B18="","",_fanchui8_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="P21" s="25" t="str">
+      <c r="P21" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C18="","",_fanchui8_day_hour!C18-_fanchui8_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="Q21" s="25" t="str">
+      <c r="Q21" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D18="","",_fanchui8_day_hour!E18-_fanchui8_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="R21" s="26" t="str">
+      <c r="R21" s="30" t="str">
         <f>IF(_maxmin_day_hour!A18="","",_maxmin_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="S21" s="26" t="str">
+      <c r="S21" s="30" t="str">
         <f>IF(_maxmin_day_hour!B18="","",_maxmin_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="T21" s="37" t="s">
+      <c r="T21" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="23">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A19:_tag_day_hour!X19)=0,"",COUNTIF(_tag_day_hour!A19:_tag_day_hour!X19,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C22" s="25" t="str">
+      <c r="B22" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A19:'_tag_day_hour'!X19)=0,"",COUNTIF(_tag_day_hour!A19:'_tag_day_hour'!X19,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C22" s="30" t="str">
         <f>IF(_tag_day_hour!Y19="","",_tag_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="D22" s="25" t="str">
+      <c r="D22" s="30" t="str">
         <f>IF(_tag_day_hour!Z19="","",_tag_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="E22" s="25" t="str">
+      <c r="E22" s="30" t="str">
         <f>IF(_tag_day_hour!AA19="","",_tag_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="F22" s="26" t="str">
+      <c r="F22" s="30" t="str">
         <f>IF(_tag_day_hour!AB19="","",_tag_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="G22" s="26" t="str">
+      <c r="G22" s="30" t="str">
         <f>IF(_tag_day_hour!AC19="","",_tag_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="H22" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD43:_tag_day_hour!BA43)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD43:_tag_day_hour!BA43),_tag_day_hour!AD43:_tag_day_hour!BA43,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD43:_tag_day_hour!BA43),_tag_day_hour!AD43:_tag_day_hour!BA43,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I22" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD43:_tag_day_hour!BA43)=24,"",MAX(_tag_day_hour!AD43:_tag_day_hour!BA43))</f>
-        <v/>
-      </c>
-      <c r="J22" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD43:_tag_day_hour!BA43)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD43:_tag_day_hour!BA43),_tag_day_hour!AD43:_tag_day_hour!BA43,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD43:_tag_day_hour!BA43),_tag_day_hour!AD43:_tag_day_hour!BA43,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K22" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD43:_tag_day_hour!BA43)=24,"",MIN(_tag_day_hour!AD43:_tag_day_hour!BA43))</f>
-        <v/>
-      </c>
-      <c r="L22" s="25" t="str">
+      <c r="H22" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD43:'_tag_day_hour'!BA43)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD43:'_tag_day_hour'!BA43),_tag_day_hour!AD43:'_tag_day_hour'!BA43,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD43:'_tag_day_hour'!BA43),_tag_day_hour!AD43:'_tag_day_hour'!BA43,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I22" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD43:'_tag_day_hour'!BA43)=24,"",MAX(_tag_day_hour!AD43:'_tag_day_hour'!BA43))</f>
+        <v/>
+      </c>
+      <c r="J22" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD43:'_tag_day_hour'!BA43)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD43:'_tag_day_hour'!BA43),_tag_day_hour!AD43:'_tag_day_hour'!BA43,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD43:'_tag_day_hour'!BA43),_tag_day_hour!AD43:'_tag_day_hour'!BA43,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K22" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD43:'_tag_day_hour'!BA43)=24,"",MIN(_tag_day_hour!AD43:'_tag_day_hour'!BA43))</f>
+        <v/>
+      </c>
+      <c r="L22" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M22" s="25" t="str">
+      <c r="M22" s="41" t="str">
         <f>IF(_tag_day_hour!BB19="","",_tag_day_hour!BB19)</f>
         <v/>
       </c>
-      <c r="N22" s="25" t="str">
+      <c r="N22" s="35" t="str">
         <f>IF(_tag_day_hour!BC19="","",_tag_day_hour!BC19)</f>
         <v/>
       </c>
-      <c r="O22" s="33" t="str">
+      <c r="O22" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B19="","",_fanchui8_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="P22" s="25" t="str">
+      <c r="P22" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C19="","",_fanchui8_day_hour!C19-_fanchui8_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="Q22" s="25" t="str">
+      <c r="Q22" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D19="","",_fanchui8_day_hour!E19-_fanchui8_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="R22" s="26" t="str">
+      <c r="R22" s="30" t="str">
         <f>IF(_maxmin_day_hour!A19="","",_maxmin_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="S22" s="26" t="str">
+      <c r="S22" s="30" t="str">
         <f>IF(_maxmin_day_hour!B19="","",_maxmin_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="T22" s="38"/>
+      <c r="T22" s="48"/>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="23">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A20:_tag_day_hour!X20)=0,"",COUNTIF(_tag_day_hour!A20:_tag_day_hour!X20,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C23" s="25" t="str">
+      <c r="B23" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A20:'_tag_day_hour'!X20)=0,"",COUNTIF(_tag_day_hour!A20:'_tag_day_hour'!X20,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C23" s="30" t="str">
         <f>IF(_tag_day_hour!Y20="","",_tag_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="D23" s="25" t="str">
+      <c r="D23" s="30" t="str">
         <f>IF(_tag_day_hour!Z20="","",_tag_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="E23" s="25" t="str">
+      <c r="E23" s="30" t="str">
         <f>IF(_tag_day_hour!AA20="","",_tag_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="F23" s="26" t="str">
+      <c r="F23" s="30" t="str">
         <f>IF(_tag_day_hour!AB20="","",_tag_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="G23" s="26" t="str">
+      <c r="G23" s="30" t="str">
         <f>IF(_tag_day_hour!AC20="","",_tag_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="H23" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD44:_tag_day_hour!BA44)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD44:_tag_day_hour!BA44),_tag_day_hour!AD44:_tag_day_hour!BA44,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD44:_tag_day_hour!BA44),_tag_day_hour!AD44:_tag_day_hour!BA44,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I23" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD44:_tag_day_hour!BA44)=24,"",MAX(_tag_day_hour!AD44:_tag_day_hour!BA44))</f>
-        <v/>
-      </c>
-      <c r="J23" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD44:_tag_day_hour!BA44)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD44:_tag_day_hour!BA44),_tag_day_hour!AD44:_tag_day_hour!BA44,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD44:_tag_day_hour!BA44),_tag_day_hour!AD44:_tag_day_hour!BA44,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K23" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD44:_tag_day_hour!BA44)=24,"",MIN(_tag_day_hour!AD44:_tag_day_hour!BA44))</f>
-        <v/>
-      </c>
-      <c r="L23" s="25" t="str">
+      <c r="H23" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD44:'_tag_day_hour'!BA44)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD44:'_tag_day_hour'!BA44),_tag_day_hour!AD44:'_tag_day_hour'!BA44,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD44:'_tag_day_hour'!BA44),_tag_day_hour!AD44:'_tag_day_hour'!BA44,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I23" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD44:'_tag_day_hour'!BA44)=24,"",MAX(_tag_day_hour!AD44:'_tag_day_hour'!BA44))</f>
+        <v/>
+      </c>
+      <c r="J23" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD44:'_tag_day_hour'!BA44)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD44:'_tag_day_hour'!BA44),_tag_day_hour!AD44:'_tag_day_hour'!BA44,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD44:'_tag_day_hour'!BA44),_tag_day_hour!AD44:'_tag_day_hour'!BA44,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K23" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD44:'_tag_day_hour'!BA44)=24,"",MIN(_tag_day_hour!AD44:'_tag_day_hour'!BA44))</f>
+        <v/>
+      </c>
+      <c r="L23" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M23" s="25" t="str">
+      <c r="M23" s="41" t="str">
         <f>IF(_tag_day_hour!BB20="","",_tag_day_hour!BB20)</f>
         <v/>
       </c>
-      <c r="N23" s="25" t="str">
+      <c r="N23" s="35" t="str">
         <f>IF(_tag_day_hour!BC20="","",_tag_day_hour!BC20)</f>
         <v/>
       </c>
-      <c r="O23" s="33" t="str">
+      <c r="O23" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B20="","",_fanchui8_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="P23" s="25" t="str">
+      <c r="P23" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C20="","",_fanchui8_day_hour!C20-_fanchui8_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="Q23" s="25" t="str">
+      <c r="Q23" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D20="","",_fanchui8_day_hour!E20-_fanchui8_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="R23" s="26" t="str">
+      <c r="R23" s="30" t="str">
         <f>IF(_maxmin_day_hour!A20="","",_maxmin_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="S23" s="26" t="str">
+      <c r="S23" s="30" t="str">
         <f>IF(_maxmin_day_hour!B20="","",_maxmin_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="T23" s="38"/>
+      <c r="T23" s="48"/>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="23">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>20</v>
       </c>
-      <c r="B24" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A21:_tag_day_hour!X21)=0,"",COUNTIF(_tag_day_hour!A21:_tag_day_hour!X21,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C24" s="25" t="str">
+      <c r="B24" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A21:'_tag_day_hour'!X21)=0,"",COUNTIF(_tag_day_hour!A21:'_tag_day_hour'!X21,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C24" s="30" t="str">
         <f>IF(_tag_day_hour!Y21="","",_tag_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="D24" s="25" t="str">
+      <c r="D24" s="30" t="str">
         <f>IF(_tag_day_hour!Z21="","",_tag_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="E24" s="25" t="str">
+      <c r="E24" s="30" t="str">
         <f>IF(_tag_day_hour!AA21="","",_tag_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="F24" s="26" t="str">
+      <c r="F24" s="30" t="str">
         <f>IF(_tag_day_hour!AB21="","",_tag_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="G24" s="26" t="str">
+      <c r="G24" s="30" t="str">
         <f>IF(_tag_day_hour!AC21="","",_tag_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="H24" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD45:_tag_day_hour!BA45)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD45:_tag_day_hour!BA45),_tag_day_hour!AD45:_tag_day_hour!BA45,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD45:_tag_day_hour!BA45),_tag_day_hour!AD45:_tag_day_hour!BA45,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I24" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD45:_tag_day_hour!BA45)=24,"",MAX(_tag_day_hour!AD45:_tag_day_hour!BA45))</f>
-        <v/>
-      </c>
-      <c r="J24" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD45:_tag_day_hour!BA45)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD45:_tag_day_hour!BA45),_tag_day_hour!AD45:_tag_day_hour!BA45,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD45:_tag_day_hour!BA45),_tag_day_hour!AD45:_tag_day_hour!BA45,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K24" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD45:_tag_day_hour!BA45)=24,"",MIN(_tag_day_hour!AD45:_tag_day_hour!BA45))</f>
-        <v/>
-      </c>
-      <c r="L24" s="25" t="str">
+      <c r="H24" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD45:'_tag_day_hour'!BA45)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD45:'_tag_day_hour'!BA45),_tag_day_hour!AD45:'_tag_day_hour'!BA45,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD45:'_tag_day_hour'!BA45),_tag_day_hour!AD45:'_tag_day_hour'!BA45,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I24" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD45:'_tag_day_hour'!BA45)=24,"",MAX(_tag_day_hour!AD45:'_tag_day_hour'!BA45))</f>
+        <v/>
+      </c>
+      <c r="J24" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD45:'_tag_day_hour'!BA45)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD45:'_tag_day_hour'!BA45),_tag_day_hour!AD45:'_tag_day_hour'!BA45,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD45:'_tag_day_hour'!BA45),_tag_day_hour!AD45:'_tag_day_hour'!BA45,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K24" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD45:'_tag_day_hour'!BA45)=24,"",MIN(_tag_day_hour!AD45:'_tag_day_hour'!BA45))</f>
+        <v/>
+      </c>
+      <c r="L24" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M24" s="25" t="str">
+      <c r="M24" s="41" t="str">
         <f>IF(_tag_day_hour!BB21="","",_tag_day_hour!BB21)</f>
         <v/>
       </c>
-      <c r="N24" s="25" t="str">
+      <c r="N24" s="35" t="str">
         <f>IF(_tag_day_hour!BC21="","",_tag_day_hour!BC21)</f>
         <v/>
       </c>
-      <c r="O24" s="33" t="str">
+      <c r="O24" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B21="","",_fanchui8_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="P24" s="25" t="str">
+      <c r="P24" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C21="","",_fanchui8_day_hour!C21-_fanchui8_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="Q24" s="25" t="str">
+      <c r="Q24" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D21="","",_fanchui8_day_hour!E21-_fanchui8_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="R24" s="26" t="str">
+      <c r="R24" s="30" t="str">
         <f>IF(_maxmin_day_hour!A21="","",_maxmin_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="S24" s="26" t="str">
+      <c r="S24" s="30" t="str">
         <f>IF(_maxmin_day_hour!B21="","",_maxmin_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="T24" s="38"/>
+      <c r="T24" s="48"/>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="23">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="B25" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A22:_tag_day_hour!X22)=0,"",COUNTIF(_tag_day_hour!A22:_tag_day_hour!X22,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C25" s="25" t="str">
+      <c r="B25" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A22:'_tag_day_hour'!X22)=0,"",COUNTIF(_tag_day_hour!A22:'_tag_day_hour'!X22,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C25" s="30" t="str">
         <f>IF(_tag_day_hour!Y22="","",_tag_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="D25" s="25" t="str">
+      <c r="D25" s="30" t="str">
         <f>IF(_tag_day_hour!Z22="","",_tag_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="E25" s="25" t="str">
+      <c r="E25" s="30" t="str">
         <f>IF(_tag_day_hour!AA22="","",_tag_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="F25" s="26" t="str">
+      <c r="F25" s="30" t="str">
         <f>IF(_tag_day_hour!AB22="","",_tag_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="G25" s="26" t="str">
+      <c r="G25" s="30" t="str">
         <f>IF(_tag_day_hour!AC22="","",_tag_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="H25" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD46:_tag_day_hour!BA46)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD46:_tag_day_hour!BA46),_tag_day_hour!AD46:_tag_day_hour!BA46,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD46:_tag_day_hour!BA46),_tag_day_hour!AD46:_tag_day_hour!BA46,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I25" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD46:_tag_day_hour!BA46)=24,"",MAX(_tag_day_hour!AD46:_tag_day_hour!BA46))</f>
-        <v/>
-      </c>
-      <c r="J25" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD46:_tag_day_hour!BA46)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD46:_tag_day_hour!BA46),_tag_day_hour!AD46:_tag_day_hour!BA46,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD46:_tag_day_hour!BA46),_tag_day_hour!AD46:_tag_day_hour!BA46,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K25" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD46:_tag_day_hour!BA46)=24,"",MIN(_tag_day_hour!AD46:_tag_day_hour!BA46))</f>
-        <v/>
-      </c>
-      <c r="L25" s="25" t="str">
+      <c r="H25" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD46:'_tag_day_hour'!BA46)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD46:'_tag_day_hour'!BA46),_tag_day_hour!AD46:'_tag_day_hour'!BA46,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD46:'_tag_day_hour'!BA46),_tag_day_hour!AD46:'_tag_day_hour'!BA46,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I25" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD46:'_tag_day_hour'!BA46)=24,"",MAX(_tag_day_hour!AD46:'_tag_day_hour'!BA46))</f>
+        <v/>
+      </c>
+      <c r="J25" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD46:'_tag_day_hour'!BA46)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD46:'_tag_day_hour'!BA46),_tag_day_hour!AD46:'_tag_day_hour'!BA46,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD46:'_tag_day_hour'!BA46),_tag_day_hour!AD46:'_tag_day_hour'!BA46,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K25" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD46:'_tag_day_hour'!BA46)=24,"",MIN(_tag_day_hour!AD46:'_tag_day_hour'!BA46))</f>
+        <v/>
+      </c>
+      <c r="L25" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M25" s="25" t="str">
+      <c r="M25" s="41" t="str">
         <f>IF(_tag_day_hour!BB22="","",_tag_day_hour!BB22)</f>
         <v/>
       </c>
-      <c r="N25" s="25" t="str">
+      <c r="N25" s="35" t="str">
         <f>IF(_tag_day_hour!BC22="","",_tag_day_hour!BC22)</f>
         <v/>
       </c>
-      <c r="O25" s="33" t="str">
+      <c r="O25" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B22="","",_fanchui8_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="P25" s="25" t="str">
+      <c r="P25" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C22="","",_fanchui8_day_hour!C22-_fanchui8_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="Q25" s="25" t="str">
+      <c r="Q25" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D22="","",_fanchui8_day_hour!E22-_fanchui8_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="R25" s="26" t="str">
+      <c r="R25" s="30" t="str">
         <f>IF(_maxmin_day_hour!A22="","",_maxmin_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="S25" s="26" t="str">
+      <c r="S25" s="30" t="str">
         <f>IF(_maxmin_day_hour!B22="","",_maxmin_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="T25" s="38"/>
+      <c r="T25" s="48"/>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="23">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>22</v>
       </c>
-      <c r="B26" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A23:_tag_day_hour!X23)=0,"",COUNTIF(_tag_day_hour!A23:_tag_day_hour!X23,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C26" s="25" t="str">
+      <c r="B26" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A23:'_tag_day_hour'!X23)=0,"",COUNTIF(_tag_day_hour!A23:'_tag_day_hour'!X23,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C26" s="30" t="str">
         <f>IF(_tag_day_hour!Y23="","",_tag_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="D26" s="25" t="str">
+      <c r="D26" s="30" t="str">
         <f>IF(_tag_day_hour!Z23="","",_tag_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="E26" s="25" t="str">
+      <c r="E26" s="30" t="str">
         <f>IF(_tag_day_hour!AA23="","",_tag_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="F26" s="26" t="str">
+      <c r="F26" s="30" t="str">
         <f>IF(_tag_day_hour!AB23="","",_tag_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="G26" s="26" t="str">
+      <c r="G26" s="30" t="str">
         <f>IF(_tag_day_hour!AC23="","",_tag_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="H26" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD47:_tag_day_hour!BA47)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD47:_tag_day_hour!BA47),_tag_day_hour!AD47:_tag_day_hour!BA47,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD47:_tag_day_hour!BA47),_tag_day_hour!AD47:_tag_day_hour!BA47,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I26" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD47:_tag_day_hour!BA47)=24,"",MAX(_tag_day_hour!AD47:_tag_day_hour!BA47))</f>
-        <v/>
-      </c>
-      <c r="J26" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD47:_tag_day_hour!BA47)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD47:_tag_day_hour!BA47),_tag_day_hour!AD47:_tag_day_hour!BA47,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD47:_tag_day_hour!BA47),_tag_day_hour!AD47:_tag_day_hour!BA47,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K26" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD47:_tag_day_hour!BA47)=24,"",MIN(_tag_day_hour!AD47:_tag_day_hour!BA47))</f>
-        <v/>
-      </c>
-      <c r="L26" s="25" t="str">
+      <c r="H26" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD47:'_tag_day_hour'!BA47)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD47:'_tag_day_hour'!BA47),_tag_day_hour!AD47:'_tag_day_hour'!BA47,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD47:'_tag_day_hour'!BA47),_tag_day_hour!AD47:'_tag_day_hour'!BA47,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I26" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD47:'_tag_day_hour'!BA47)=24,"",MAX(_tag_day_hour!AD47:'_tag_day_hour'!BA47))</f>
+        <v/>
+      </c>
+      <c r="J26" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD47:'_tag_day_hour'!BA47)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD47:'_tag_day_hour'!BA47),_tag_day_hour!AD47:'_tag_day_hour'!BA47,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD47:'_tag_day_hour'!BA47),_tag_day_hour!AD47:'_tag_day_hour'!BA47,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K26" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD47:'_tag_day_hour'!BA47)=24,"",MIN(_tag_day_hour!AD47:'_tag_day_hour'!BA47))</f>
+        <v/>
+      </c>
+      <c r="L26" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M26" s="25" t="str">
+      <c r="M26" s="41" t="str">
         <f>IF(_tag_day_hour!BB23="","",_tag_day_hour!BB23)</f>
         <v/>
       </c>
-      <c r="N26" s="25" t="str">
+      <c r="N26" s="35" t="str">
         <f>IF(_tag_day_hour!BC23="","",_tag_day_hour!BC23)</f>
         <v/>
       </c>
-      <c r="O26" s="33" t="str">
+      <c r="O26" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B23="","",_fanchui8_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="P26" s="25" t="str">
+      <c r="P26" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C23="","",_fanchui8_day_hour!C23-_fanchui8_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="Q26" s="25" t="str">
+      <c r="Q26" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D23="","",_fanchui8_day_hour!E23-_fanchui8_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="R26" s="26" t="str">
+      <c r="R26" s="30" t="str">
         <f>IF(_maxmin_day_hour!A23="","",_maxmin_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="S26" s="26" t="str">
+      <c r="S26" s="30" t="str">
         <f>IF(_maxmin_day_hour!B23="","",_maxmin_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="T26" s="38"/>
+      <c r="T26" s="48"/>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="23">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>23</v>
       </c>
-      <c r="B27" s="24" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A24:_tag_day_hour!X24)=0,"",COUNTIF(_tag_day_hour!A24:_tag_day_hour!X24,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C27" s="25" t="str">
+      <c r="B27" s="21" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A24:'_tag_day_hour'!X24)=0,"",COUNTIF(_tag_day_hour!A24:'_tag_day_hour'!X24,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C27" s="30" t="str">
         <f>IF(_tag_day_hour!Y24="","",_tag_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="D27" s="25" t="str">
+      <c r="D27" s="30" t="str">
         <f>IF(_tag_day_hour!Z24="","",_tag_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="E27" s="25" t="str">
+      <c r="E27" s="30" t="str">
         <f>IF(_tag_day_hour!AA24="","",_tag_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="F27" s="26" t="str">
+      <c r="F27" s="30" t="str">
         <f>IF(_tag_day_hour!AB24="","",_tag_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="G27" s="26" t="str">
+      <c r="G27" s="30" t="str">
         <f>IF(_tag_day_hour!AC24="","",_tag_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="H27" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD48:_tag_day_hour!BA48)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD48:_tag_day_hour!BA48),_tag_day_hour!AD48:_tag_day_hour!BA48,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD48:_tag_day_hour!BA48),_tag_day_hour!AD48:_tag_day_hour!BA48,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I27" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD48:_tag_day_hour!BA48)=24,"",MAX(_tag_day_hour!AD48:_tag_day_hour!BA48))</f>
-        <v/>
-      </c>
-      <c r="J27" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD48:_tag_day_hour!BA48)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD48:_tag_day_hour!BA48),_tag_day_hour!AD48:_tag_day_hour!BA48,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD48:_tag_day_hour!BA48),_tag_day_hour!AD48:_tag_day_hour!BA48,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K27" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD48:_tag_day_hour!BA48)=24,"",MIN(_tag_day_hour!AD48:_tag_day_hour!BA48))</f>
-        <v/>
-      </c>
-      <c r="L27" s="25" t="str">
+      <c r="H27" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD48:'_tag_day_hour'!BA48)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD48:'_tag_day_hour'!BA48),_tag_day_hour!AD48:'_tag_day_hour'!BA48,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD48:'_tag_day_hour'!BA48),_tag_day_hour!AD48:'_tag_day_hour'!BA48,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I27" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD48:'_tag_day_hour'!BA48)=24,"",MAX(_tag_day_hour!AD48:'_tag_day_hour'!BA48))</f>
+        <v/>
+      </c>
+      <c r="J27" s="21" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD48:'_tag_day_hour'!BA48)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD48:'_tag_day_hour'!BA48),_tag_day_hour!AD48:'_tag_day_hour'!BA48,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD48:'_tag_day_hour'!BA48),_tag_day_hour!AD48:'_tag_day_hour'!BA48,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K27" s="30" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD48:'_tag_day_hour'!BA48)=24,"",MIN(_tag_day_hour!AD48:'_tag_day_hour'!BA48))</f>
+        <v/>
+      </c>
+      <c r="L27" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M27" s="25" t="str">
+      <c r="M27" s="41" t="str">
         <f>IF(_tag_day_hour!BB24="","",_tag_day_hour!BB24)</f>
         <v/>
       </c>
-      <c r="N27" s="25" t="str">
+      <c r="N27" s="35" t="str">
         <f>IF(_tag_day_hour!BC24="","",_tag_day_hour!BC24)</f>
         <v/>
       </c>
-      <c r="O27" s="33" t="str">
+      <c r="O27" s="14" t="str">
         <f>IF(_fanchui8_day_hour!B24="","",_fanchui8_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="P27" s="25" t="str">
+      <c r="P27" s="35" t="str">
         <f>IF(_fanchui8_day_hour!C24="","",_fanchui8_day_hour!C24-_fanchui8_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="Q27" s="25" t="str">
+      <c r="Q27" s="35" t="str">
         <f>IF(_fanchui8_day_hour!D24="","",_fanchui8_day_hour!E24-_fanchui8_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="R27" s="26" t="str">
+      <c r="R27" s="30" t="str">
         <f>IF(_maxmin_day_hour!A24="","",_maxmin_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="S27" s="26" t="str">
+      <c r="S27" s="30" t="str">
         <f>IF(_maxmin_day_hour!B24="","",_maxmin_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="T27" s="38"/>
+      <c r="T27" s="48"/>
     </row>
-    <row r="28" ht="14.25" spans="1:20">
-      <c r="A28" s="27">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>24</v>
       </c>
-      <c r="B28" s="28" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A25:_tag_day_hour!X25)=0,"",COUNTIF(_tag_day_hour!A25:_tag_day_hour!X25,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C28" s="29" t="str">
+      <c r="B28" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A25:'_tag_day_hour'!X25)=0,"",COUNTIF(_tag_day_hour!A25:'_tag_day_hour'!X25,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C28" s="31" t="str">
         <f>IF(_tag_day_hour!Y25="","",_tag_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="D28" s="29" t="str">
+      <c r="D28" s="31" t="str">
         <f>IF(_tag_day_hour!Z25="","",_tag_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="E28" s="29" t="str">
+      <c r="E28" s="31" t="str">
         <f>IF(_tag_day_hour!AA25="","",_tag_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="F28" s="30" t="str">
+      <c r="F28" s="31" t="str">
         <f>IF(_tag_day_hour!AB25="","",_tag_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="G28" s="30" t="str">
+      <c r="G28" s="31" t="str">
         <f>IF(_tag_day_hour!AC25="","",_tag_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="H28" s="28" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD49:_tag_day_hour!BA49)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD49:_tag_day_hour!BA49),_tag_day_hour!AD49:_tag_day_hour!BA49,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MAX(_tag_day_hour!AD49:_tag_day_hour!BA49),_tag_day_hour!AD49:_tag_day_hour!BA49,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="I28" s="30" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD49:_tag_day_hour!BA49)=24,"",MAX(_tag_day_hour!AD49:_tag_day_hour!BA49))</f>
-        <v/>
-      </c>
-      <c r="J28" s="28" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD49:_tag_day_hour!BA49)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD49:_tag_day_hour!BA49),_tag_day_hour!AD49:_tag_day_hour!BA49,0)),LEN(INDEX(_tag_day_hour!$AD$1:_tag_day_hour!$BA$1,MATCH(MIN(_tag_day_hour!AD49:_tag_day_hour!BA49),_tag_day_hour!AD49:_tag_day_hour!BA49,0)))-10,4),"_",""))</f>
-        <v/>
-      </c>
-      <c r="K28" s="30" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AD49:_tag_day_hour!BA49)=24,"",MIN(_tag_day_hour!AD49:_tag_day_hour!BA49))</f>
-        <v/>
-      </c>
-      <c r="L28" s="29" t="str">
+      <c r="H28" s="22" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD49:'_tag_day_hour'!BA49)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD49:'_tag_day_hour'!BA49),_tag_day_hour!AD49:'_tag_day_hour'!BA49,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD49:'_tag_day_hour'!BA49),_tag_day_hour!AD49:'_tag_day_hour'!BA49,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="I28" s="31" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD49:'_tag_day_hour'!BA49)=24,"",MAX(_tag_day_hour!AD49:'_tag_day_hour'!BA49))</f>
+        <v/>
+      </c>
+      <c r="J28" s="22" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD49:'_tag_day_hour'!BA49)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD49:'_tag_day_hour'!BA49),_tag_day_hour!AD49:'_tag_day_hour'!BA49,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD49:'_tag_day_hour'!BA49),_tag_day_hour!AD49:'_tag_day_hour'!BA49,0)))-10,4),"_",""))</f>
+        <v/>
+      </c>
+      <c r="K28" s="31" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AD49:'_tag_day_hour'!BA49)=24,"",MIN(_tag_day_hour!AD49:'_tag_day_hour'!BA49))</f>
+        <v/>
+      </c>
+      <c r="L28" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M28" s="29" t="str">
+      <c r="M28" s="42" t="str">
         <f>IF(_tag_day_hour!BB25="","",_tag_day_hour!BB25)</f>
         <v/>
       </c>
-      <c r="N28" s="29" t="str">
+      <c r="N28" s="36" t="str">
         <f>IF(_tag_day_hour!BC25="","",_tag_day_hour!BC25)</f>
         <v/>
       </c>
-      <c r="O28" s="34" t="str">
+      <c r="O28" s="15" t="str">
         <f>IF(_fanchui8_day_hour!B25="","",_fanchui8_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="P28" s="29" t="str">
+      <c r="P28" s="36" t="str">
         <f>IF(_fanchui8_day_hour!C25="","",_fanchui8_day_hour!C25-_fanchui8_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="Q28" s="29" t="str">
+      <c r="Q28" s="36" t="str">
         <f>IF(_fanchui8_day_hour!D25="","",_fanchui8_day_hour!E25-_fanchui8_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="R28" s="30" t="str">
+      <c r="R28" s="31" t="str">
         <f>IF(_maxmin_day_hour!A25="","",_maxmin_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="S28" s="30" t="str">
+      <c r="S28" s="31" t="str">
         <f>IF(_maxmin_day_hour!B25="","",_maxmin_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="T28" s="40"/>
+      <c r="T28" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3814,200 +3271,200 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T5:T12"/>
+    <mergeCell ref="T13:T20"/>
+    <mergeCell ref="T21:T28"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="T5:T12"/>
-    <mergeCell ref="T13:T20"/>
-    <mergeCell ref="T21:T28"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC49"/>
   <sheetViews>
     <sheetView topLeftCell="AK1" workbookViewId="0">
       <selection activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="68.25" spans="1:55">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:55" ht="72" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AM1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AP1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AU1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AV1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AW1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AX1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AY1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BA1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="30:53">
+    <row r="26" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD26" t="str">
         <f t="shared" ref="AD26:AD49" si="0">IF(A2="","",IF(A2=0,AD2,""))</f>
         <v/>
@@ -4105,7 +3562,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="30:53">
+    <row r="27" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD27" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4203,7 +3660,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="30:53">
+    <row r="28" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD28" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4301,7 +3758,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="30:53">
+    <row r="29" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD29" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4399,7 +3856,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="30:53">
+    <row r="30" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD30" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4497,7 +3954,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="30:53">
+    <row r="31" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD31" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4595,7 +4052,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="30:53">
+    <row r="32" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4693,7 +4150,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="30:53">
+    <row r="33" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD33" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4791,7 +4248,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="30:53">
+    <row r="34" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4889,7 +4346,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="30:53">
+    <row r="35" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD35" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4987,7 +4444,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="30:53">
+    <row r="36" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD36" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5085,7 +4542,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="30:53">
+    <row r="37" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD37" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5183,7 +4640,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="30:53">
+    <row r="38" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5281,7 +4738,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="30:53">
+    <row r="39" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD39" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5379,7 +4836,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="30:53">
+    <row r="40" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5477,7 +4934,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="30:53">
+    <row r="41" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5575,7 +5032,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="30:53">
+    <row r="42" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5673,7 +5130,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="30:53">
+    <row r="43" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD43" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5771,7 +5228,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="30:53">
+    <row r="44" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5869,7 +5326,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="30:53">
+    <row r="45" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD45" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5967,7 +5424,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="30:53">
+    <row r="46" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD46" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6065,7 +5522,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="30:53">
+    <row r="47" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD47" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6163,7 +5620,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="30:53">
+    <row r="48" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6261,7 +5718,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="30:53">
+    <row r="49" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD49" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6360,91 +5817,85 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:6">
+    <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -6465,8 +5916,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/finished/环保/8BF-煤气布袋除尘报表.xlsx
+++ b/excel/finished/环保/8BF-煤气布袋除尘报表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\朱川\Desktop\布袋除尘\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="8BF-煤气布袋除尘报表" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="_maxmin_day_hour" sheetId="5" r:id="rId5"/>
     <sheet name="_fanchui8_day_hour" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -29,13 +24,14 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>何茂成:</t>
@@ -44,6 +40,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,13 +48,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>何茂成:</t>
@@ -66,6 +64,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -73,13 +72,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0">
+    <comment ref="O5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>何茂成:</t>
@@ -88,6 +88,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,13 +106,14 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>何茂成:</t>
@@ -120,6 +122,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -127,13 +130,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>何茂成:</t>
@@ -142,6 +146,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -153,40 +158,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>何茂成</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>何茂成:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-此两点乘积为1时前1min的压差值，及之后乘积为0的后1min压差值</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>8号高炉煤气布袋除尘器运行记录</t>
   </si>
@@ -245,6 +218,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>流量（m</t>
@@ -255,6 +229,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -264,6 +239,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h)</t>
@@ -275,6 +251,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>含尘量（mg/m</t>
@@ -285,6 +262,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -294,6 +272,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -501,10 +480,8 @@
     <t>BF8_L2C_DEDUST_3_CMD_1m_avg</t>
   </si>
   <si>
-    <t>BF8_L2C_DEDUST_is_QCFC_1m_max</t>
-  </si>
-  <si>
-    <t>BF8_L2C_DEDUST_is_START_FC_1m_max</t>
+    <t>BF8_L2C_DEDUST_is_XTFC_start_1m_max</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -517,7 +494,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +513,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -543,6 +521,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -550,11 +529,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -562,21 +543,32 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -763,14 +755,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
@@ -891,6 +877,18 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -902,9 +900,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -926,12 +921,6 @@
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1214,2055 +1203,2063 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S1" activeCellId="1" sqref="R1:R1048576 S1:S1048576"/>
+      <selection activeCell="Q5" sqref="Q5:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9" style="23"/>
-    <col min="3" max="7" width="9" style="32"/>
-    <col min="8" max="8" width="9" style="23"/>
-    <col min="9" max="9" width="9" style="32"/>
-    <col min="10" max="10" width="9" style="23"/>
-    <col min="11" max="11" width="9" style="32"/>
-    <col min="12" max="12" width="9" style="37"/>
-    <col min="13" max="13" width="9" style="43"/>
-    <col min="14" max="14" width="9" style="37"/>
-    <col min="15" max="15" width="9" style="26"/>
-    <col min="16" max="17" width="9" style="37"/>
-    <col min="18" max="19" width="9" style="32"/>
-    <col min="20" max="20" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="9" style="21"/>
+    <col min="3" max="7" width="9" style="30"/>
+    <col min="8" max="8" width="9" style="21"/>
+    <col min="9" max="9" width="9" style="30"/>
+    <col min="10" max="10" width="9" style="21"/>
+    <col min="11" max="11" width="9" style="30"/>
+    <col min="12" max="12" width="9" style="35"/>
+    <col min="13" max="13" width="9" style="41"/>
+    <col min="14" max="14" width="9" style="35"/>
+    <col min="15" max="15" width="15.625" style="24" customWidth="1"/>
+    <col min="16" max="17" width="9" style="35"/>
+    <col min="18" max="19" width="9" style="30"/>
+    <col min="20" max="20" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:20" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="9"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="7"/>
     </row>
-    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="59" t="str">
+    <row r="2" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="47" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="45" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="9"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="56" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50" t="s">
+      <c r="N3" s="48"/>
+      <c r="O3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50" t="s">
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="16" t="s">
+      <c r="S3" s="48"/>
+      <c r="T3" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="49.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="28" t="s">
+    <row r="4" spans="1:20" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="28" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="39" t="s">
+      <c r="L4" s="58"/>
+      <c r="M4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="17"/>
+      <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="str">
+      <c r="B5" s="18" t="str">
         <f>IF(COUNTA(_tag_day_hour!A2:'_tag_day_hour'!X2)=0,"",COUNTIF(_tag_day_hour!A2:'_tag_day_hour'!X2,"=0"))</f>
         <v/>
       </c>
-      <c r="C5" s="29" t="str">
+      <c r="C5" s="27" t="str">
         <f>IF(_tag_day_hour!Y2="","",_tag_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="D5" s="29" t="str">
+      <c r="D5" s="27" t="str">
         <f>IF(_tag_day_hour!Z2="","",_tag_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="E5" s="29" t="str">
+      <c r="E5" s="27" t="str">
         <f>IF(_tag_day_hour!AA2="","",_tag_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="27" t="str">
         <f>IF(_tag_day_hour!AB2="","",_tag_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="G5" s="29" t="str">
+      <c r="G5" s="27" t="str">
         <f>IF(_tag_day_hour!AC2="","",_tag_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="H5" s="20" t="str">
+      <c r="H5" s="18" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD26:'_tag_day_hour'!BA26)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD26:'_tag_day_hour'!BA26),_tag_day_hour!AD26:'_tag_day_hour'!BA26,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD26:'_tag_day_hour'!BA26),_tag_day_hour!AD26:'_tag_day_hour'!BA26,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I5" s="29" t="str">
+      <c r="I5" s="27" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD26:'_tag_day_hour'!BA26)=24,"",MAX(_tag_day_hour!AD26:'_tag_day_hour'!BA26))</f>
         <v/>
       </c>
-      <c r="J5" s="20" t="str">
+      <c r="J5" s="18" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD26:'_tag_day_hour'!BA26)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD26:'_tag_day_hour'!BA26),_tag_day_hour!AD26:'_tag_day_hour'!BA26,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD26:'_tag_day_hour'!BA26),_tag_day_hour!AD26:'_tag_day_hour'!BA26,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K5" s="29" t="str">
+      <c r="K5" s="27" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD26:'_tag_day_hour'!BA26)=24,"",MIN(_tag_day_hour!AD26:'_tag_day_hour'!BA26))</f>
         <v/>
       </c>
-      <c r="L5" s="34" t="str">
+      <c r="L5" s="32" t="str">
         <f t="shared" ref="L5:L28" si="0">IF(AND(C5="",D5=""),"",C5-D5)</f>
         <v/>
       </c>
-      <c r="M5" s="40" t="str">
+      <c r="M5" s="38" t="str">
         <f>IF(_tag_day_hour!BB2="","",_tag_day_hour!BB2)</f>
         <v/>
       </c>
-      <c r="N5" s="34" t="str">
+      <c r="N5" s="32" t="str">
         <f>IF(_tag_day_hour!BC2="","",_tag_day_hour!BC2)</f>
         <v/>
       </c>
-      <c r="O5" s="13" t="str">
-        <f>IF(_fanchui8_day_hour!B2="","",_fanchui8_day_hour!B2)</f>
-        <v/>
-      </c>
-      <c r="P5" s="34" t="str">
-        <f>IF(_fanchui8_day_hour!C2="","",_fanchui8_day_hour!C2-_fanchui8_day_hour!D2)</f>
-        <v/>
-      </c>
-      <c r="Q5" s="34" t="str">
-        <f>IF(_fanchui8_day_hour!D2="","",_fanchui8_day_hour!E2-_fanchui8_day_hour!F2)</f>
-        <v/>
-      </c>
-      <c r="R5" s="30" t="str">
+      <c r="O5" s="11" t="str">
+        <f>IF(_fanchui8_day_hour!A2="","",_fanchui8_day_hour!A2)</f>
+        <v/>
+      </c>
+      <c r="P5" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!B2="","",_fanchui8_day_hour!B2-_fanchui8_day_hour!C2)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D2="","",_fanchui8_day_hour!D2-_fanchui8_day_hour!E2)</f>
+        <v/>
+      </c>
+      <c r="R5" s="28" t="str">
         <f>IF(_maxmin_day_hour!A2="","",_maxmin_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="S5" s="30" t="str">
+      <c r="S5" s="28" t="str">
         <f>IF(_maxmin_day_hour!B2="","",_maxmin_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="str">
+      <c r="B6" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A3:'_tag_day_hour'!X3)=0,"",COUNTIF(_tag_day_hour!A3:'_tag_day_hour'!X3,"=0"))</f>
         <v/>
       </c>
-      <c r="C6" s="30" t="str">
+      <c r="C6" s="28" t="str">
         <f>IF(_tag_day_hour!Y3="","",_tag_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="D6" s="30" t="str">
+      <c r="D6" s="28" t="str">
         <f>IF(_tag_day_hour!Z3="","",_tag_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="E6" s="30" t="str">
+      <c r="E6" s="28" t="str">
         <f>IF(_tag_day_hour!AA3="","",_tag_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="F6" s="30" t="str">
+      <c r="F6" s="28" t="str">
         <f>IF(_tag_day_hour!AB3="","",_tag_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="G6" s="30" t="str">
+      <c r="G6" s="28" t="str">
         <f>IF(_tag_day_hour!AC3="","",_tag_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="H6" s="21" t="str">
+      <c r="H6" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD27:'_tag_day_hour'!BA27)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD27:'_tag_day_hour'!BA27),_tag_day_hour!AD27:'_tag_day_hour'!BA27,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD27:'_tag_day_hour'!BA27),_tag_day_hour!AD27:'_tag_day_hour'!BA27,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I6" s="30" t="str">
+      <c r="I6" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD27:'_tag_day_hour'!BA27)=24,"",MAX(_tag_day_hour!AD27:'_tag_day_hour'!BA27))</f>
         <v/>
       </c>
-      <c r="J6" s="21" t="str">
+      <c r="J6" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD27:'_tag_day_hour'!BA27)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD27:'_tag_day_hour'!BA27),_tag_day_hour!AD27:'_tag_day_hour'!BA27,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD27:'_tag_day_hour'!BA27),_tag_day_hour!AD27:'_tag_day_hour'!BA27,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K6" s="30" t="str">
+      <c r="K6" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD27:'_tag_day_hour'!BA27)=24,"",MIN(_tag_day_hour!AD27:'_tag_day_hour'!BA27))</f>
         <v/>
       </c>
-      <c r="L6" s="35" t="str">
+      <c r="L6" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M6" s="41" t="str">
+      <c r="M6" s="39" t="str">
         <f>IF(_tag_day_hour!BB3="","",_tag_day_hour!BB3)</f>
         <v/>
       </c>
-      <c r="N6" s="35" t="str">
+      <c r="N6" s="33" t="str">
         <f>IF(_tag_day_hour!BC3="","",_tag_day_hour!BC3)</f>
         <v/>
       </c>
-      <c r="O6" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B3="","",_fanchui8_day_hour!B3)</f>
-        <v/>
-      </c>
-      <c r="P6" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C3="","",_fanchui8_day_hour!C3-_fanchui8_day_hour!D3)</f>
-        <v/>
-      </c>
-      <c r="Q6" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D3="","",_fanchui8_day_hour!E3-_fanchui8_day_hour!F3)</f>
-        <v/>
-      </c>
-      <c r="R6" s="30" t="str">
+      <c r="O6" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A3="","",_fanchui8_day_hour!A3)</f>
+        <v/>
+      </c>
+      <c r="P6" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B3="","",_fanchui8_day_hour!B3-_fanchui8_day_hour!C3)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D3="","",_fanchui8_day_hour!D3-_fanchui8_day_hour!E3)</f>
+        <v/>
+      </c>
+      <c r="R6" s="28" t="str">
         <f>IF(_maxmin_day_hour!A3="","",_maxmin_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="S6" s="30" t="str">
+      <c r="S6" s="28" t="str">
         <f>IF(_maxmin_day_hour!B3="","",_maxmin_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="T6" s="48"/>
+      <c r="T6" s="50"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="str">
+      <c r="B7" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A4:'_tag_day_hour'!X4)=0,"",COUNTIF(_tag_day_hour!A4:'_tag_day_hour'!X4,"=0"))</f>
         <v/>
       </c>
-      <c r="C7" s="30" t="str">
+      <c r="C7" s="28" t="str">
         <f>IF(_tag_day_hour!Y4="","",_tag_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="D7" s="30" t="str">
+      <c r="D7" s="28" t="str">
         <f>IF(_tag_day_hour!Z4="","",_tag_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="E7" s="30" t="str">
+      <c r="E7" s="28" t="str">
         <f>IF(_tag_day_hour!AA4="","",_tag_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="F7" s="30" t="str">
+      <c r="F7" s="28" t="str">
         <f>IF(_tag_day_hour!AB4="","",_tag_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="G7" s="30" t="str">
+      <c r="G7" s="28" t="str">
         <f>IF(_tag_day_hour!AC4="","",_tag_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD28:'_tag_day_hour'!BA28)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD28:'_tag_day_hour'!BA28),_tag_day_hour!AD28:'_tag_day_hour'!BA28,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD28:'_tag_day_hour'!BA28),_tag_day_hour!AD28:'_tag_day_hour'!BA28,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I7" s="30" t="str">
+      <c r="I7" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD28:'_tag_day_hour'!BA28)=24,"",MAX(_tag_day_hour!AD28:'_tag_day_hour'!BA28))</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
+      <c r="J7" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD28:'_tag_day_hour'!BA28)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD28:'_tag_day_hour'!BA28),_tag_day_hour!AD28:'_tag_day_hour'!BA28,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD28:'_tag_day_hour'!BA28),_tag_day_hour!AD28:'_tag_day_hour'!BA28,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K7" s="30" t="str">
+      <c r="K7" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD28:'_tag_day_hour'!BA28)=24,"",MIN(_tag_day_hour!AD28:'_tag_day_hour'!BA28))</f>
         <v/>
       </c>
-      <c r="L7" s="35" t="str">
+      <c r="L7" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M7" s="41" t="str">
+      <c r="M7" s="39" t="str">
         <f>IF(_tag_day_hour!BB4="","",_tag_day_hour!BB4)</f>
         <v/>
       </c>
-      <c r="N7" s="35" t="str">
+      <c r="N7" s="33" t="str">
         <f>IF(_tag_day_hour!BC4="","",_tag_day_hour!BC4)</f>
         <v/>
       </c>
-      <c r="O7" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B4="","",_fanchui8_day_hour!B4)</f>
-        <v/>
-      </c>
-      <c r="P7" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C4="","",_fanchui8_day_hour!C4-_fanchui8_day_hour!D4)</f>
-        <v/>
-      </c>
-      <c r="Q7" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D4="","",_fanchui8_day_hour!E4-_fanchui8_day_hour!F4)</f>
-        <v/>
-      </c>
-      <c r="R7" s="46" t="str">
+      <c r="O7" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A4="","",_fanchui8_day_hour!A4)</f>
+        <v/>
+      </c>
+      <c r="P7" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B4="","",_fanchui8_day_hour!B4-_fanchui8_day_hour!C4)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D4="","",_fanchui8_day_hour!D4-_fanchui8_day_hour!E4)</f>
+        <v/>
+      </c>
+      <c r="R7" s="44" t="str">
         <f>IF(_maxmin_day_hour!A4="","",_maxmin_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="S7" s="46" t="str">
+      <c r="S7" s="44" t="str">
         <f>IF(_maxmin_day_hour!B4="","",_maxmin_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="T7" s="48"/>
+      <c r="T7" s="50"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="str">
+      <c r="B8" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A5:'_tag_day_hour'!X5)=0,"",COUNTIF(_tag_day_hour!A5:'_tag_day_hour'!X5,"=0"))</f>
         <v/>
       </c>
-      <c r="C8" s="30" t="str">
+      <c r="C8" s="28" t="str">
         <f>IF(_tag_day_hour!Y5="","",_tag_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="D8" s="30" t="str">
+      <c r="D8" s="28" t="str">
         <f>IF(_tag_day_hour!Z5="","",_tag_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="E8" s="30" t="str">
+      <c r="E8" s="28" t="str">
         <f>IF(_tag_day_hour!AA5="","",_tag_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="F8" s="30" t="str">
+      <c r="F8" s="28" t="str">
         <f>IF(_tag_day_hour!AB5="","",_tag_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="G8" s="30" t="str">
+      <c r="G8" s="28" t="str">
         <f>IF(_tag_day_hour!AC5="","",_tag_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD29:'_tag_day_hour'!BA29)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD29:'_tag_day_hour'!BA29),_tag_day_hour!AD29:'_tag_day_hour'!BA29,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD29:'_tag_day_hour'!BA29),_tag_day_hour!AD29:'_tag_day_hour'!BA29,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I8" s="30" t="str">
+      <c r="I8" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD29:'_tag_day_hour'!BA29)=24,"",MAX(_tag_day_hour!AD29:'_tag_day_hour'!BA29))</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
+      <c r="J8" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD29:'_tag_day_hour'!BA29)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD29:'_tag_day_hour'!BA29),_tag_day_hour!AD29:'_tag_day_hour'!BA29,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD29:'_tag_day_hour'!BA29),_tag_day_hour!AD29:'_tag_day_hour'!BA29,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K8" s="30" t="str">
+      <c r="K8" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD29:'_tag_day_hour'!BA29)=24,"",MIN(_tag_day_hour!AD29:'_tag_day_hour'!BA29))</f>
         <v/>
       </c>
-      <c r="L8" s="35" t="str">
+      <c r="L8" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M8" s="41" t="str">
+      <c r="M8" s="39" t="str">
         <f>IF(_tag_day_hour!BB5="","",_tag_day_hour!BB5)</f>
         <v/>
       </c>
-      <c r="N8" s="35" t="str">
+      <c r="N8" s="33" t="str">
         <f>IF(_tag_day_hour!BC5="","",_tag_day_hour!BC5)</f>
         <v/>
       </c>
-      <c r="O8" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B5="","",_fanchui8_day_hour!B5)</f>
-        <v/>
-      </c>
-      <c r="P8" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C5="","",_fanchui8_day_hour!C5-_fanchui8_day_hour!D5)</f>
-        <v/>
-      </c>
-      <c r="Q8" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D5="","",_fanchui8_day_hour!E5-_fanchui8_day_hour!F5)</f>
-        <v/>
-      </c>
-      <c r="R8" s="30" t="str">
+      <c r="O8" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A5="","",_fanchui8_day_hour!A5)</f>
+        <v/>
+      </c>
+      <c r="P8" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B5="","",_fanchui8_day_hour!B5-_fanchui8_day_hour!C5)</f>
+        <v/>
+      </c>
+      <c r="Q8" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D5="","",_fanchui8_day_hour!D5-_fanchui8_day_hour!E5)</f>
+        <v/>
+      </c>
+      <c r="R8" s="28" t="str">
         <f>IF(_maxmin_day_hour!A5="","",_maxmin_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="S8" s="30" t="str">
+      <c r="S8" s="28" t="str">
         <f>IF(_maxmin_day_hour!B5="","",_maxmin_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="T8" s="48"/>
+      <c r="T8" s="50"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="str">
+      <c r="B9" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A6:'_tag_day_hour'!X6)=0,"",COUNTIF(_tag_day_hour!A6:'_tag_day_hour'!X6,"=0"))</f>
         <v/>
       </c>
-      <c r="C9" s="30" t="str">
+      <c r="C9" s="28" t="str">
         <f>IF(_tag_day_hour!Y6="","",_tag_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="D9" s="30" t="str">
+      <c r="D9" s="28" t="str">
         <f>IF(_tag_day_hour!Z6="","",_tag_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="E9" s="30" t="str">
+      <c r="E9" s="28" t="str">
         <f>IF(_tag_day_hour!AA6="","",_tag_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="F9" s="30" t="str">
+      <c r="F9" s="28" t="str">
         <f>IF(_tag_day_hour!AB6="","",_tag_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="G9" s="30" t="str">
+      <c r="G9" s="28" t="str">
         <f>IF(_tag_day_hour!AC6="","",_tag_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD30:'_tag_day_hour'!BA30)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD30:'_tag_day_hour'!BA30),_tag_day_hour!AD30:'_tag_day_hour'!BA30,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD30:'_tag_day_hour'!BA30),_tag_day_hour!AD30:'_tag_day_hour'!BA30,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I9" s="30" t="str">
+      <c r="I9" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD30:'_tag_day_hour'!BA30)=24,"",MAX(_tag_day_hour!AD30:'_tag_day_hour'!BA30))</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD30:'_tag_day_hour'!BA30)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD30:'_tag_day_hour'!BA30),_tag_day_hour!AD30:'_tag_day_hour'!BA30,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD30:'_tag_day_hour'!BA30),_tag_day_hour!AD30:'_tag_day_hour'!BA30,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K9" s="30" t="str">
+      <c r="K9" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD30:'_tag_day_hour'!BA30)=24,"",MIN(_tag_day_hour!AD30:'_tag_day_hour'!BA30))</f>
         <v/>
       </c>
-      <c r="L9" s="35" t="str">
+      <c r="L9" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="41" t="str">
+      <c r="M9" s="39" t="str">
         <f>IF(_tag_day_hour!BB6="","",_tag_day_hour!BB6)</f>
         <v/>
       </c>
-      <c r="N9" s="35" t="str">
+      <c r="N9" s="33" t="str">
         <f>IF(_tag_day_hour!BC6="","",_tag_day_hour!BC6)</f>
         <v/>
       </c>
-      <c r="O9" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B6="","",_fanchui8_day_hour!B6)</f>
-        <v/>
-      </c>
-      <c r="P9" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C6="","",_fanchui8_day_hour!C6-_fanchui8_day_hour!D6)</f>
-        <v/>
-      </c>
-      <c r="Q9" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D6="","",_fanchui8_day_hour!E6-_fanchui8_day_hour!F6)</f>
-        <v/>
-      </c>
-      <c r="R9" s="30" t="str">
+      <c r="O9" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A6="","",_fanchui8_day_hour!A6)</f>
+        <v/>
+      </c>
+      <c r="P9" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B6="","",_fanchui8_day_hour!B6-_fanchui8_day_hour!C6)</f>
+        <v/>
+      </c>
+      <c r="Q9" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D6="","",_fanchui8_day_hour!D6-_fanchui8_day_hour!E6)</f>
+        <v/>
+      </c>
+      <c r="R9" s="28" t="str">
         <f>IF(_maxmin_day_hour!A6="","",_maxmin_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="S9" s="30" t="str">
+      <c r="S9" s="28" t="str">
         <f>IF(_maxmin_day_hour!B6="","",_maxmin_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="T9" s="48"/>
+      <c r="T9" s="50"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="B10" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A7:'_tag_day_hour'!X7)=0,"",COUNTIF(_tag_day_hour!A7:'_tag_day_hour'!X7,"=0"))</f>
         <v/>
       </c>
-      <c r="C10" s="30" t="str">
+      <c r="C10" s="28" t="str">
         <f>IF(_tag_day_hour!Y7="","",_tag_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="D10" s="30" t="str">
+      <c r="D10" s="28" t="str">
         <f>IF(_tag_day_hour!Z7="","",_tag_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="E10" s="30" t="str">
+      <c r="E10" s="28" t="str">
         <f>IF(_tag_day_hour!AA7="","",_tag_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="F10" s="30" t="str">
+      <c r="F10" s="28" t="str">
         <f>IF(_tag_day_hour!AB7="","",_tag_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="G10" s="30" t="str">
+      <c r="G10" s="28" t="str">
         <f>IF(_tag_day_hour!AC7="","",_tag_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD31:'_tag_day_hour'!BA31)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD31:'_tag_day_hour'!BA31),_tag_day_hour!AD31:'_tag_day_hour'!BA31,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD31:'_tag_day_hour'!BA31),_tag_day_hour!AD31:'_tag_day_hour'!BA31,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I10" s="30" t="str">
+      <c r="I10" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD31:'_tag_day_hour'!BA31)=24,"",MAX(_tag_day_hour!AD31:'_tag_day_hour'!BA31))</f>
         <v/>
       </c>
-      <c r="J10" s="21" t="str">
+      <c r="J10" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD31:'_tag_day_hour'!BA31)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD31:'_tag_day_hour'!BA31),_tag_day_hour!AD31:'_tag_day_hour'!BA31,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD31:'_tag_day_hour'!BA31),_tag_day_hour!AD31:'_tag_day_hour'!BA31,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K10" s="30" t="str">
+      <c r="K10" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD31:'_tag_day_hour'!BA31)=24,"",MIN(_tag_day_hour!AD31:'_tag_day_hour'!BA31))</f>
         <v/>
       </c>
-      <c r="L10" s="35" t="str">
+      <c r="L10" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="41" t="str">
+      <c r="M10" s="39" t="str">
         <f>IF(_tag_day_hour!BB7="","",_tag_day_hour!BB7)</f>
         <v/>
       </c>
-      <c r="N10" s="35" t="str">
+      <c r="N10" s="33" t="str">
         <f>IF(_tag_day_hour!BC7="","",_tag_day_hour!BC7)</f>
         <v/>
       </c>
-      <c r="O10" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B7="","",_fanchui8_day_hour!B7)</f>
-        <v/>
-      </c>
-      <c r="P10" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C7="","",_fanchui8_day_hour!C7-_fanchui8_day_hour!D7)</f>
-        <v/>
-      </c>
-      <c r="Q10" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D7="","",_fanchui8_day_hour!E7-_fanchui8_day_hour!F7)</f>
-        <v/>
-      </c>
-      <c r="R10" s="30" t="str">
+      <c r="O10" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A7="","",_fanchui8_day_hour!A7)</f>
+        <v/>
+      </c>
+      <c r="P10" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B7="","",_fanchui8_day_hour!B7-_fanchui8_day_hour!C7)</f>
+        <v/>
+      </c>
+      <c r="Q10" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D7="","",_fanchui8_day_hour!D7-_fanchui8_day_hour!E7)</f>
+        <v/>
+      </c>
+      <c r="R10" s="28" t="str">
         <f>IF(_maxmin_day_hour!A7="","",_maxmin_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="S10" s="30" t="str">
+      <c r="S10" s="28" t="str">
         <f>IF(_maxmin_day_hour!B7="","",_maxmin_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="T10" s="48"/>
+      <c r="T10" s="50"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="str">
+      <c r="B11" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A8:'_tag_day_hour'!X8)=0,"",COUNTIF(_tag_day_hour!A8:'_tag_day_hour'!X8,"=0"))</f>
         <v/>
       </c>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="28" t="str">
         <f>IF(_tag_day_hour!Y8="","",_tag_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="D11" s="30" t="str">
+      <c r="D11" s="28" t="str">
         <f>IF(_tag_day_hour!Z8="","",_tag_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="E11" s="30" t="str">
+      <c r="E11" s="28" t="str">
         <f>IF(_tag_day_hour!AA8="","",_tag_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="F11" s="30" t="str">
+      <c r="F11" s="28" t="str">
         <f>IF(_tag_day_hour!AB8="","",_tag_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="G11" s="30" t="str">
+      <c r="G11" s="28" t="str">
         <f>IF(_tag_day_hour!AC8="","",_tag_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="H11" s="21" t="str">
+      <c r="H11" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD32:'_tag_day_hour'!BA32)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD32:'_tag_day_hour'!BA32),_tag_day_hour!AD32:'_tag_day_hour'!BA32,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD32:'_tag_day_hour'!BA32),_tag_day_hour!AD32:'_tag_day_hour'!BA32,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I11" s="30" t="str">
+      <c r="I11" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD32:'_tag_day_hour'!BA32)=24,"",MAX(_tag_day_hour!AD32:'_tag_day_hour'!BA32))</f>
         <v/>
       </c>
-      <c r="J11" s="21" t="str">
+      <c r="J11" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD32:'_tag_day_hour'!BA32)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD32:'_tag_day_hour'!BA32),_tag_day_hour!AD32:'_tag_day_hour'!BA32,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD32:'_tag_day_hour'!BA32),_tag_day_hour!AD32:'_tag_day_hour'!BA32,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K11" s="30" t="str">
+      <c r="K11" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD32:'_tag_day_hour'!BA32)=24,"",MIN(_tag_day_hour!AD32:'_tag_day_hour'!BA32))</f>
         <v/>
       </c>
-      <c r="L11" s="35" t="str">
+      <c r="L11" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="41" t="str">
+      <c r="M11" s="39" t="str">
         <f>IF(_tag_day_hour!BB8="","",_tag_day_hour!BB8)</f>
         <v/>
       </c>
-      <c r="N11" s="35" t="str">
+      <c r="N11" s="33" t="str">
         <f>IF(_tag_day_hour!BC8="","",_tag_day_hour!BC8)</f>
         <v/>
       </c>
-      <c r="O11" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B8="","",_fanchui8_day_hour!B8)</f>
-        <v/>
-      </c>
-      <c r="P11" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C8="","",_fanchui8_day_hour!C8-_fanchui8_day_hour!D8)</f>
-        <v/>
-      </c>
-      <c r="Q11" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D8="","",_fanchui8_day_hour!E8-_fanchui8_day_hour!F8)</f>
-        <v/>
-      </c>
-      <c r="R11" s="30" t="str">
+      <c r="O11" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A8="","",_fanchui8_day_hour!A8)</f>
+        <v/>
+      </c>
+      <c r="P11" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B8="","",_fanchui8_day_hour!B8-_fanchui8_day_hour!C8)</f>
+        <v/>
+      </c>
+      <c r="Q11" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D8="","",_fanchui8_day_hour!D8-_fanchui8_day_hour!E8)</f>
+        <v/>
+      </c>
+      <c r="R11" s="28" t="str">
         <f>IF(_maxmin_day_hour!A8="","",_maxmin_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="S11" s="30" t="str">
+      <c r="S11" s="28" t="str">
         <f>IF(_maxmin_day_hour!B8="","",_maxmin_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="T11" s="48"/>
+      <c r="T11" s="50"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A9:'_tag_day_hour'!X9)=0,"",COUNTIF(_tag_day_hour!A9:'_tag_day_hour'!X9,"=0"))</f>
         <v/>
       </c>
-      <c r="C12" s="30" t="str">
+      <c r="C12" s="28" t="str">
         <f>IF(_tag_day_hour!Y9="","",_tag_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="D12" s="30" t="str">
+      <c r="D12" s="28" t="str">
         <f>IF(_tag_day_hour!Z9="","",_tag_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="E12" s="30" t="str">
+      <c r="E12" s="28" t="str">
         <f>IF(_tag_day_hour!AA9="","",_tag_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="F12" s="30" t="str">
+      <c r="F12" s="28" t="str">
         <f>IF(_tag_day_hour!AB9="","",_tag_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="G12" s="30" t="str">
+      <c r="G12" s="28" t="str">
         <f>IF(_tag_day_hour!AC9="","",_tag_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="H12" s="21" t="str">
+      <c r="H12" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD33:'_tag_day_hour'!BA33)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD33:'_tag_day_hour'!BA33),_tag_day_hour!AD33:'_tag_day_hour'!BA33,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD33:'_tag_day_hour'!BA33),_tag_day_hour!AD33:'_tag_day_hour'!BA33,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I12" s="30" t="str">
+      <c r="I12" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD33:'_tag_day_hour'!BA33)=24,"",MAX(_tag_day_hour!AD33:'_tag_day_hour'!BA33))</f>
         <v/>
       </c>
-      <c r="J12" s="21" t="str">
+      <c r="J12" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD33:'_tag_day_hour'!BA33)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD33:'_tag_day_hour'!BA33),_tag_day_hour!AD33:'_tag_day_hour'!BA33,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD33:'_tag_day_hour'!BA33),_tag_day_hour!AD33:'_tag_day_hour'!BA33,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K12" s="30" t="str">
+      <c r="K12" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD33:'_tag_day_hour'!BA33)=24,"",MIN(_tag_day_hour!AD33:'_tag_day_hour'!BA33))</f>
         <v/>
       </c>
-      <c r="L12" s="35" t="str">
+      <c r="L12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="41" t="str">
+      <c r="M12" s="39" t="str">
         <f>IF(_tag_day_hour!BB9="","",_tag_day_hour!BB9)</f>
         <v/>
       </c>
-      <c r="N12" s="35" t="str">
+      <c r="N12" s="33" t="str">
         <f>IF(_tag_day_hour!BC9="","",_tag_day_hour!BC9)</f>
         <v/>
       </c>
-      <c r="O12" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B9="","",_fanchui8_day_hour!B9)</f>
-        <v/>
-      </c>
-      <c r="P12" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C9="","",_fanchui8_day_hour!C9-_fanchui8_day_hour!D9)</f>
-        <v/>
-      </c>
-      <c r="Q12" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D9="","",_fanchui8_day_hour!E9-_fanchui8_day_hour!F9)</f>
-        <v/>
-      </c>
-      <c r="R12" s="30" t="str">
+      <c r="O12" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A9="","",_fanchui8_day_hour!A9)</f>
+        <v/>
+      </c>
+      <c r="P12" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B9="","",_fanchui8_day_hour!B9-_fanchui8_day_hour!C9)</f>
+        <v/>
+      </c>
+      <c r="Q12" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D9="","",_fanchui8_day_hour!D9-_fanchui8_day_hour!E9)</f>
+        <v/>
+      </c>
+      <c r="R12" s="28" t="str">
         <f>IF(_maxmin_day_hour!A9="","",_maxmin_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="S12" s="30" t="str">
+      <c r="S12" s="28" t="str">
         <f>IF(_maxmin_day_hour!B9="","",_maxmin_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="T12" s="48"/>
+      <c r="T12" s="50"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A10:'_tag_day_hour'!X10)=0,"",COUNTIF(_tag_day_hour!A10:'_tag_day_hour'!X10,"=0"))</f>
         <v/>
       </c>
-      <c r="C13" s="30" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_tag_day_hour!Y10="","",_tag_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="D13" s="30" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_tag_day_hour!Z10="","",_tag_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="E13" s="30" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_tag_day_hour!AA10="","",_tag_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="F13" s="30" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_tag_day_hour!AB10="","",_tag_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="G13" s="30" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_tag_day_hour!AC10="","",_tag_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="H13" s="21" t="str">
+      <c r="H13" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD34:'_tag_day_hour'!BA34)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD34:'_tag_day_hour'!BA34),_tag_day_hour!AD34:'_tag_day_hour'!BA34,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD34:'_tag_day_hour'!BA34),_tag_day_hour!AD34:'_tag_day_hour'!BA34,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I13" s="30" t="str">
+      <c r="I13" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD34:'_tag_day_hour'!BA34)=24,"",MAX(_tag_day_hour!AD34:'_tag_day_hour'!BA34))</f>
         <v/>
       </c>
-      <c r="J13" s="21" t="str">
+      <c r="J13" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD34:'_tag_day_hour'!BA34)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD34:'_tag_day_hour'!BA34),_tag_day_hour!AD34:'_tag_day_hour'!BA34,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD34:'_tag_day_hour'!BA34),_tag_day_hour!AD34:'_tag_day_hour'!BA34,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K13" s="30" t="str">
+      <c r="K13" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD34:'_tag_day_hour'!BA34)=24,"",MIN(_tag_day_hour!AD34:'_tag_day_hour'!BA34))</f>
         <v/>
       </c>
-      <c r="L13" s="35" t="str">
+      <c r="L13" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="41" t="str">
+      <c r="M13" s="39" t="str">
         <f>IF(_tag_day_hour!BB10="","",_tag_day_hour!BB10)</f>
         <v/>
       </c>
-      <c r="N13" s="35" t="str">
+      <c r="N13" s="33" t="str">
         <f>IF(_tag_day_hour!BC10="","",_tag_day_hour!BC10)</f>
         <v/>
       </c>
-      <c r="O13" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B10="","",_fanchui8_day_hour!B10)</f>
-        <v/>
-      </c>
-      <c r="P13" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C10="","",_fanchui8_day_hour!C10-_fanchui8_day_hour!D10)</f>
-        <v/>
-      </c>
-      <c r="Q13" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D10="","",_fanchui8_day_hour!E10-_fanchui8_day_hour!F10)</f>
-        <v/>
-      </c>
-      <c r="R13" s="30" t="str">
+      <c r="O13" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A10="","",_fanchui8_day_hour!A10)</f>
+        <v/>
+      </c>
+      <c r="P13" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B10="","",_fanchui8_day_hour!B10-_fanchui8_day_hour!C10)</f>
+        <v/>
+      </c>
+      <c r="Q13" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D10="","",_fanchui8_day_hour!D10-_fanchui8_day_hour!E10)</f>
+        <v/>
+      </c>
+      <c r="R13" s="28" t="str">
         <f>IF(_maxmin_day_hour!A10="","",_maxmin_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="S13" s="30" t="str">
+      <c r="S13" s="28" t="str">
         <f>IF(_maxmin_day_hour!B10="","",_maxmin_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="T13" s="47" t="s">
+      <c r="T13" s="49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="B14" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A11:'_tag_day_hour'!X11)=0,"",COUNTIF(_tag_day_hour!A11:'_tag_day_hour'!X11,"=0"))</f>
         <v/>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="28" t="str">
         <f>IF(_tag_day_hour!Y11="","",_tag_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="28" t="str">
         <f>IF(_tag_day_hour!Z11="","",_tag_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="28" t="str">
         <f>IF(_tag_day_hour!AA11="","",_tag_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="F14" s="30" t="str">
+      <c r="F14" s="28" t="str">
         <f>IF(_tag_day_hour!AB11="","",_tag_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="28" t="str">
         <f>IF(_tag_day_hour!AC11="","",_tag_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="H14" s="21" t="str">
+      <c r="H14" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD35:'_tag_day_hour'!BA35)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD35:'_tag_day_hour'!BA35),_tag_day_hour!AD35:'_tag_day_hour'!BA35,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD35:'_tag_day_hour'!BA35),_tag_day_hour!AD35:'_tag_day_hour'!BA35,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I14" s="30" t="str">
+      <c r="I14" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD35:'_tag_day_hour'!BA35)=24,"",MAX(_tag_day_hour!AD35:'_tag_day_hour'!BA35))</f>
         <v/>
       </c>
-      <c r="J14" s="21" t="str">
+      <c r="J14" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD35:'_tag_day_hour'!BA35)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD35:'_tag_day_hour'!BA35),_tag_day_hour!AD35:'_tag_day_hour'!BA35,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD35:'_tag_day_hour'!BA35),_tag_day_hour!AD35:'_tag_day_hour'!BA35,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K14" s="30" t="str">
+      <c r="K14" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD35:'_tag_day_hour'!BA35)=24,"",MIN(_tag_day_hour!AD35:'_tag_day_hour'!BA35))</f>
         <v/>
       </c>
-      <c r="L14" s="35" t="str">
+      <c r="L14" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="41" t="str">
+      <c r="M14" s="39" t="str">
         <f>IF(_tag_day_hour!BB11="","",_tag_day_hour!BB11)</f>
         <v/>
       </c>
-      <c r="N14" s="35" t="str">
+      <c r="N14" s="33" t="str">
         <f>IF(_tag_day_hour!BC11="","",_tag_day_hour!BC11)</f>
         <v/>
       </c>
-      <c r="O14" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B11="","",_fanchui8_day_hour!B11)</f>
-        <v/>
-      </c>
-      <c r="P14" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C11="","",_fanchui8_day_hour!C11-_fanchui8_day_hour!D11)</f>
-        <v/>
-      </c>
-      <c r="Q14" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D11="","",_fanchui8_day_hour!E11-_fanchui8_day_hour!F11)</f>
-        <v/>
-      </c>
-      <c r="R14" s="30" t="str">
+      <c r="O14" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A11="","",_fanchui8_day_hour!A11)</f>
+        <v/>
+      </c>
+      <c r="P14" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B11="","",_fanchui8_day_hour!B11-_fanchui8_day_hour!C11)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D11="","",_fanchui8_day_hour!D11-_fanchui8_day_hour!E11)</f>
+        <v/>
+      </c>
+      <c r="R14" s="28" t="str">
         <f>IF(_maxmin_day_hour!A11="","",_maxmin_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="S14" s="30" t="str">
+      <c r="S14" s="28" t="str">
         <f>IF(_maxmin_day_hour!B11="","",_maxmin_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="T14" s="48"/>
+      <c r="T14" s="50"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A12:'_tag_day_hour'!X12)=0,"",COUNTIF(_tag_day_hour!A12:'_tag_day_hour'!X12,"=0"))</f>
         <v/>
       </c>
-      <c r="C15" s="30" t="str">
+      <c r="C15" s="28" t="str">
         <f>IF(_tag_day_hour!Y12="","",_tag_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="D15" s="30" t="str">
+      <c r="D15" s="28" t="str">
         <f>IF(_tag_day_hour!Z12="","",_tag_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="E15" s="30" t="str">
+      <c r="E15" s="28" t="str">
         <f>IF(_tag_day_hour!AA12="","",_tag_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="F15" s="30" t="str">
+      <c r="F15" s="28" t="str">
         <f>IF(_tag_day_hour!AB12="","",_tag_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="G15" s="30" t="str">
+      <c r="G15" s="28" t="str">
         <f>IF(_tag_day_hour!AC12="","",_tag_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="H15" s="21" t="str">
+      <c r="H15" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD36:'_tag_day_hour'!BA36)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD36:'_tag_day_hour'!BA36),_tag_day_hour!AD36:'_tag_day_hour'!BA36,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD36:'_tag_day_hour'!BA36),_tag_day_hour!AD36:'_tag_day_hour'!BA36,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I15" s="30" t="str">
+      <c r="I15" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD36:'_tag_day_hour'!BA36)=24,"",MAX(_tag_day_hour!AD36:'_tag_day_hour'!BA36))</f>
         <v/>
       </c>
-      <c r="J15" s="21" t="str">
+      <c r="J15" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD36:'_tag_day_hour'!BA36)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD36:'_tag_day_hour'!BA36),_tag_day_hour!AD36:'_tag_day_hour'!BA36,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD36:'_tag_day_hour'!BA36),_tag_day_hour!AD36:'_tag_day_hour'!BA36,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K15" s="30" t="str">
+      <c r="K15" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD36:'_tag_day_hour'!BA36)=24,"",MIN(_tag_day_hour!AD36:'_tag_day_hour'!BA36))</f>
         <v/>
       </c>
-      <c r="L15" s="35" t="str">
+      <c r="L15" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M15" s="41" t="str">
+      <c r="M15" s="39" t="str">
         <f>IF(_tag_day_hour!BB12="","",_tag_day_hour!BB12)</f>
         <v/>
       </c>
-      <c r="N15" s="35" t="str">
+      <c r="N15" s="33" t="str">
         <f>IF(_tag_day_hour!BC12="","",_tag_day_hour!BC12)</f>
         <v/>
       </c>
-      <c r="O15" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B12="","",_fanchui8_day_hour!B12)</f>
-        <v/>
-      </c>
-      <c r="P15" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C12="","",_fanchui8_day_hour!C12-_fanchui8_day_hour!D12)</f>
-        <v/>
-      </c>
-      <c r="Q15" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D12="","",_fanchui8_day_hour!E12-_fanchui8_day_hour!F12)</f>
-        <v/>
-      </c>
-      <c r="R15" s="30" t="str">
+      <c r="O15" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A12="","",_fanchui8_day_hour!A12)</f>
+        <v/>
+      </c>
+      <c r="P15" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B12="","",_fanchui8_day_hour!B12-_fanchui8_day_hour!C12)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D12="","",_fanchui8_day_hour!D12-_fanchui8_day_hour!E12)</f>
+        <v/>
+      </c>
+      <c r="R15" s="28" t="str">
         <f>IF(_maxmin_day_hour!A12="","",_maxmin_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="S15" s="30" t="str">
+      <c r="S15" s="28" t="str">
         <f>IF(_maxmin_day_hour!B12="","",_maxmin_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="T15" s="48"/>
+      <c r="T15" s="50"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="21" t="str">
+      <c r="B16" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A13:'_tag_day_hour'!X13)=0,"",COUNTIF(_tag_day_hour!A13:'_tag_day_hour'!X13,"=0"))</f>
         <v/>
       </c>
-      <c r="C16" s="30" t="str">
+      <c r="C16" s="28" t="str">
         <f>IF(_tag_day_hour!Y13="","",_tag_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="D16" s="30" t="str">
+      <c r="D16" s="28" t="str">
         <f>IF(_tag_day_hour!Z13="","",_tag_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="E16" s="30" t="str">
+      <c r="E16" s="28" t="str">
         <f>IF(_tag_day_hour!AA13="","",_tag_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="F16" s="30" t="str">
+      <c r="F16" s="28" t="str">
         <f>IF(_tag_day_hour!AB13="","",_tag_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="G16" s="30" t="str">
+      <c r="G16" s="28" t="str">
         <f>IF(_tag_day_hour!AC13="","",_tag_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD37:'_tag_day_hour'!BA37)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD37:'_tag_day_hour'!BA37),_tag_day_hour!AD37:'_tag_day_hour'!BA37,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD37:'_tag_day_hour'!BA37),_tag_day_hour!AD37:'_tag_day_hour'!BA37,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I16" s="30" t="str">
+      <c r="I16" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD37:'_tag_day_hour'!BA37)=24,"",MAX(_tag_day_hour!AD37:'_tag_day_hour'!BA37))</f>
         <v/>
       </c>
-      <c r="J16" s="21" t="str">
+      <c r="J16" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD37:'_tag_day_hour'!BA37)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD37:'_tag_day_hour'!BA37),_tag_day_hour!AD37:'_tag_day_hour'!BA37,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD37:'_tag_day_hour'!BA37),_tag_day_hour!AD37:'_tag_day_hour'!BA37,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K16" s="30" t="str">
+      <c r="K16" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD37:'_tag_day_hour'!BA37)=24,"",MIN(_tag_day_hour!AD37:'_tag_day_hour'!BA37))</f>
         <v/>
       </c>
-      <c r="L16" s="35" t="str">
+      <c r="L16" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M16" s="41" t="str">
+      <c r="M16" s="39" t="str">
         <f>IF(_tag_day_hour!BB13="","",_tag_day_hour!BB13)</f>
         <v/>
       </c>
-      <c r="N16" s="35" t="str">
+      <c r="N16" s="33" t="str">
         <f>IF(_tag_day_hour!BC13="","",_tag_day_hour!BC13)</f>
         <v/>
       </c>
-      <c r="O16" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B13="","",_fanchui8_day_hour!B13)</f>
-        <v/>
-      </c>
-      <c r="P16" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C13="","",_fanchui8_day_hour!C13-_fanchui8_day_hour!D13)</f>
-        <v/>
-      </c>
-      <c r="Q16" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D13="","",_fanchui8_day_hour!E13-_fanchui8_day_hour!F13)</f>
-        <v/>
-      </c>
-      <c r="R16" s="30" t="str">
+      <c r="O16" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A13="","",_fanchui8_day_hour!A13)</f>
+        <v/>
+      </c>
+      <c r="P16" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B13="","",_fanchui8_day_hour!B13-_fanchui8_day_hour!C13)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D13="","",_fanchui8_day_hour!D13-_fanchui8_day_hour!E13)</f>
+        <v/>
+      </c>
+      <c r="R16" s="28" t="str">
         <f>IF(_maxmin_day_hour!A13="","",_maxmin_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="S16" s="30" t="str">
+      <c r="S16" s="28" t="str">
         <f>IF(_maxmin_day_hour!B13="","",_maxmin_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="T16" s="48"/>
+      <c r="T16" s="50"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A14:'_tag_day_hour'!X14)=0,"",COUNTIF(_tag_day_hour!A14:'_tag_day_hour'!X14,"=0"))</f>
         <v/>
       </c>
-      <c r="C17" s="30" t="str">
+      <c r="C17" s="28" t="str">
         <f>IF(_tag_day_hour!Y14="","",_tag_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="D17" s="30" t="str">
+      <c r="D17" s="28" t="str">
         <f>IF(_tag_day_hour!Z14="","",_tag_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="E17" s="30" t="str">
+      <c r="E17" s="28" t="str">
         <f>IF(_tag_day_hour!AA14="","",_tag_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="F17" s="30" t="str">
+      <c r="F17" s="28" t="str">
         <f>IF(_tag_day_hour!AB14="","",_tag_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="G17" s="30" t="str">
+      <c r="G17" s="28" t="str">
         <f>IF(_tag_day_hour!AC14="","",_tag_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="H17" s="21" t="str">
+      <c r="H17" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD38:'_tag_day_hour'!BA38)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD38:'_tag_day_hour'!BA38),_tag_day_hour!AD38:'_tag_day_hour'!BA38,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD38:'_tag_day_hour'!BA38),_tag_day_hour!AD38:'_tag_day_hour'!BA38,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I17" s="30" t="str">
+      <c r="I17" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD38:'_tag_day_hour'!BA38)=24,"",MAX(_tag_day_hour!AD38:'_tag_day_hour'!BA38))</f>
         <v/>
       </c>
-      <c r="J17" s="21" t="str">
+      <c r="J17" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD38:'_tag_day_hour'!BA38)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD38:'_tag_day_hour'!BA38),_tag_day_hour!AD38:'_tag_day_hour'!BA38,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD38:'_tag_day_hour'!BA38),_tag_day_hour!AD38:'_tag_day_hour'!BA38,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K17" s="30" t="str">
+      <c r="K17" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD38:'_tag_day_hour'!BA38)=24,"",MIN(_tag_day_hour!AD38:'_tag_day_hour'!BA38))</f>
         <v/>
       </c>
-      <c r="L17" s="35" t="str">
+      <c r="L17" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M17" s="41" t="str">
+      <c r="M17" s="39" t="str">
         <f>IF(_tag_day_hour!BB14="","",_tag_day_hour!BB14)</f>
         <v/>
       </c>
-      <c r="N17" s="35" t="str">
+      <c r="N17" s="33" t="str">
         <f>IF(_tag_day_hour!BC14="","",_tag_day_hour!BC14)</f>
         <v/>
       </c>
-      <c r="O17" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B14="","",_fanchui8_day_hour!B14)</f>
-        <v/>
-      </c>
-      <c r="P17" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C14="","",_fanchui8_day_hour!C14-_fanchui8_day_hour!D14)</f>
-        <v/>
-      </c>
-      <c r="Q17" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D14="","",_fanchui8_day_hour!E14-_fanchui8_day_hour!F14)</f>
-        <v/>
-      </c>
-      <c r="R17" s="30" t="str">
+      <c r="O17" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A14="","",_fanchui8_day_hour!A14)</f>
+        <v/>
+      </c>
+      <c r="P17" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B14="","",_fanchui8_day_hour!B14-_fanchui8_day_hour!C14)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D14="","",_fanchui8_day_hour!D14-_fanchui8_day_hour!E14)</f>
+        <v/>
+      </c>
+      <c r="R17" s="28" t="str">
         <f>IF(_maxmin_day_hour!A14="","",_maxmin_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="S17" s="30" t="str">
+      <c r="S17" s="28" t="str">
         <f>IF(_maxmin_day_hour!B14="","",_maxmin_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="T17" s="48"/>
+      <c r="T17" s="50"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="B18" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A15:'_tag_day_hour'!X15)=0,"",COUNTIF(_tag_day_hour!A15:'_tag_day_hour'!X15,"=0"))</f>
         <v/>
       </c>
-      <c r="C18" s="30" t="str">
+      <c r="C18" s="28" t="str">
         <f>IF(_tag_day_hour!Y15="","",_tag_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="D18" s="30" t="str">
+      <c r="D18" s="28" t="str">
         <f>IF(_tag_day_hour!Z15="","",_tag_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="E18" s="30" t="str">
+      <c r="E18" s="28" t="str">
         <f>IF(_tag_day_hour!AA15="","",_tag_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="F18" s="30" t="str">
+      <c r="F18" s="28" t="str">
         <f>IF(_tag_day_hour!AB15="","",_tag_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="G18" s="30" t="str">
+      <c r="G18" s="28" t="str">
         <f>IF(_tag_day_hour!AC15="","",_tag_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="H18" s="21" t="str">
+      <c r="H18" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD39:'_tag_day_hour'!BA39)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD39:'_tag_day_hour'!BA39),_tag_day_hour!AD39:'_tag_day_hour'!BA39,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD39:'_tag_day_hour'!BA39),_tag_day_hour!AD39:'_tag_day_hour'!BA39,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I18" s="30" t="str">
+      <c r="I18" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD39:'_tag_day_hour'!BA39)=24,"",MAX(_tag_day_hour!AD39:'_tag_day_hour'!BA39))</f>
         <v/>
       </c>
-      <c r="J18" s="21" t="str">
+      <c r="J18" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD39:'_tag_day_hour'!BA39)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD39:'_tag_day_hour'!BA39),_tag_day_hour!AD39:'_tag_day_hour'!BA39,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD39:'_tag_day_hour'!BA39),_tag_day_hour!AD39:'_tag_day_hour'!BA39,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K18" s="30" t="str">
+      <c r="K18" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD39:'_tag_day_hour'!BA39)=24,"",MIN(_tag_day_hour!AD39:'_tag_day_hour'!BA39))</f>
         <v/>
       </c>
-      <c r="L18" s="35" t="str">
+      <c r="L18" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M18" s="41" t="str">
+      <c r="M18" s="39" t="str">
         <f>IF(_tag_day_hour!BB15="","",_tag_day_hour!BB15)</f>
         <v/>
       </c>
-      <c r="N18" s="35" t="str">
+      <c r="N18" s="33" t="str">
         <f>IF(_tag_day_hour!BC15="","",_tag_day_hour!BC15)</f>
         <v/>
       </c>
-      <c r="O18" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B15="","",_fanchui8_day_hour!B15)</f>
-        <v/>
-      </c>
-      <c r="P18" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C15="","",_fanchui8_day_hour!C15-_fanchui8_day_hour!D15)</f>
-        <v/>
-      </c>
-      <c r="Q18" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D15="","",_fanchui8_day_hour!E15-_fanchui8_day_hour!F15)</f>
-        <v/>
-      </c>
-      <c r="R18" s="30" t="str">
+      <c r="O18" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A15="","",_fanchui8_day_hour!A15)</f>
+        <v/>
+      </c>
+      <c r="P18" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B15="","",_fanchui8_day_hour!B15-_fanchui8_day_hour!C15)</f>
+        <v/>
+      </c>
+      <c r="Q18" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D15="","",_fanchui8_day_hour!D15-_fanchui8_day_hour!E15)</f>
+        <v/>
+      </c>
+      <c r="R18" s="28" t="str">
         <f>IF(_maxmin_day_hour!A15="","",_maxmin_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="S18" s="30" t="str">
+      <c r="S18" s="28" t="str">
         <f>IF(_maxmin_day_hour!B15="","",_maxmin_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="T18" s="48"/>
+      <c r="T18" s="50"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="21" t="str">
+      <c r="B19" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A16:'_tag_day_hour'!X16)=0,"",COUNTIF(_tag_day_hour!A16:'_tag_day_hour'!X16,"=0"))</f>
         <v/>
       </c>
-      <c r="C19" s="30" t="str">
+      <c r="C19" s="28" t="str">
         <f>IF(_tag_day_hour!Y16="","",_tag_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="D19" s="30" t="str">
+      <c r="D19" s="28" t="str">
         <f>IF(_tag_day_hour!Z16="","",_tag_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="E19" s="30" t="str">
+      <c r="E19" s="28" t="str">
         <f>IF(_tag_day_hour!AA16="","",_tag_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="F19" s="30" t="str">
+      <c r="F19" s="28" t="str">
         <f>IF(_tag_day_hour!AB16="","",_tag_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="G19" s="30" t="str">
+      <c r="G19" s="28" t="str">
         <f>IF(_tag_day_hour!AC16="","",_tag_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="H19" s="21" t="str">
+      <c r="H19" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD40:'_tag_day_hour'!BA40)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD40:'_tag_day_hour'!BA40),_tag_day_hour!AD40:'_tag_day_hour'!BA40,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD40:'_tag_day_hour'!BA40),_tag_day_hour!AD40:'_tag_day_hour'!BA40,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I19" s="30" t="str">
+      <c r="I19" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD40:'_tag_day_hour'!BA40)=24,"",MAX(_tag_day_hour!AD40:'_tag_day_hour'!BA40))</f>
         <v/>
       </c>
-      <c r="J19" s="21" t="str">
+      <c r="J19" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD40:'_tag_day_hour'!BA40)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD40:'_tag_day_hour'!BA40),_tag_day_hour!AD40:'_tag_day_hour'!BA40,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD40:'_tag_day_hour'!BA40),_tag_day_hour!AD40:'_tag_day_hour'!BA40,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K19" s="30" t="str">
+      <c r="K19" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD40:'_tag_day_hour'!BA40)=24,"",MIN(_tag_day_hour!AD40:'_tag_day_hour'!BA40))</f>
         <v/>
       </c>
-      <c r="L19" s="35" t="str">
+      <c r="L19" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M19" s="41" t="str">
+      <c r="M19" s="39" t="str">
         <f>IF(_tag_day_hour!BB16="","",_tag_day_hour!BB16)</f>
         <v/>
       </c>
-      <c r="N19" s="35" t="str">
+      <c r="N19" s="33" t="str">
         <f>IF(_tag_day_hour!BC16="","",_tag_day_hour!BC16)</f>
         <v/>
       </c>
-      <c r="O19" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B16="","",_fanchui8_day_hour!B16)</f>
-        <v/>
-      </c>
-      <c r="P19" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C16="","",_fanchui8_day_hour!C16-_fanchui8_day_hour!D16)</f>
-        <v/>
-      </c>
-      <c r="Q19" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D16="","",_fanchui8_day_hour!E16-_fanchui8_day_hour!F16)</f>
-        <v/>
-      </c>
-      <c r="R19" s="30" t="str">
+      <c r="O19" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A16="","",_fanchui8_day_hour!A16)</f>
+        <v/>
+      </c>
+      <c r="P19" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B16="","",_fanchui8_day_hour!B16-_fanchui8_day_hour!C16)</f>
+        <v/>
+      </c>
+      <c r="Q19" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D16="","",_fanchui8_day_hour!D16-_fanchui8_day_hour!E16)</f>
+        <v/>
+      </c>
+      <c r="R19" s="28" t="str">
         <f>IF(_maxmin_day_hour!A16="","",_maxmin_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="S19" s="30" t="str">
+      <c r="S19" s="28" t="str">
         <f>IF(_maxmin_day_hour!B16="","",_maxmin_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="T19" s="48"/>
+      <c r="T19" s="50"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="B20" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A17:'_tag_day_hour'!X17)=0,"",COUNTIF(_tag_day_hour!A17:'_tag_day_hour'!X17,"=0"))</f>
         <v/>
       </c>
-      <c r="C20" s="30" t="str">
+      <c r="C20" s="28" t="str">
         <f>IF(_tag_day_hour!Y17="","",_tag_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="D20" s="30" t="str">
+      <c r="D20" s="28" t="str">
         <f>IF(_tag_day_hour!Z17="","",_tag_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="E20" s="30" t="str">
+      <c r="E20" s="28" t="str">
         <f>IF(_tag_day_hour!AA17="","",_tag_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="F20" s="30" t="str">
+      <c r="F20" s="28" t="str">
         <f>IF(_tag_day_hour!AB17="","",_tag_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="G20" s="30" t="str">
+      <c r="G20" s="28" t="str">
         <f>IF(_tag_day_hour!AC17="","",_tag_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="H20" s="21" t="str">
+      <c r="H20" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD41:'_tag_day_hour'!BA41)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD41:'_tag_day_hour'!BA41),_tag_day_hour!AD41:'_tag_day_hour'!BA41,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD41:'_tag_day_hour'!BA41),_tag_day_hour!AD41:'_tag_day_hour'!BA41,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I20" s="30" t="str">
+      <c r="I20" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD41:'_tag_day_hour'!BA41)=24,"",MAX(_tag_day_hour!AD41:'_tag_day_hour'!BA41))</f>
         <v/>
       </c>
-      <c r="J20" s="21" t="str">
+      <c r="J20" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD41:'_tag_day_hour'!BA41)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD41:'_tag_day_hour'!BA41),_tag_day_hour!AD41:'_tag_day_hour'!BA41,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD41:'_tag_day_hour'!BA41),_tag_day_hour!AD41:'_tag_day_hour'!BA41,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K20" s="30" t="str">
+      <c r="K20" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD41:'_tag_day_hour'!BA41)=24,"",MIN(_tag_day_hour!AD41:'_tag_day_hour'!BA41))</f>
         <v/>
       </c>
-      <c r="L20" s="35" t="str">
+      <c r="L20" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M20" s="41" t="str">
+      <c r="M20" s="39" t="str">
         <f>IF(_tag_day_hour!BB17="","",_tag_day_hour!BB17)</f>
         <v/>
       </c>
-      <c r="N20" s="35" t="str">
+      <c r="N20" s="33" t="str">
         <f>IF(_tag_day_hour!BC17="","",_tag_day_hour!BC17)</f>
         <v/>
       </c>
-      <c r="O20" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B17="","",_fanchui8_day_hour!B17)</f>
-        <v/>
-      </c>
-      <c r="P20" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C17="","",_fanchui8_day_hour!C17-_fanchui8_day_hour!D17)</f>
-        <v/>
-      </c>
-      <c r="Q20" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D17="","",_fanchui8_day_hour!E17-_fanchui8_day_hour!F17)</f>
-        <v/>
-      </c>
-      <c r="R20" s="30" t="str">
+      <c r="O20" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A17="","",_fanchui8_day_hour!A17)</f>
+        <v/>
+      </c>
+      <c r="P20" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B17="","",_fanchui8_day_hour!B17-_fanchui8_day_hour!C17)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D17="","",_fanchui8_day_hour!D17-_fanchui8_day_hour!E17)</f>
+        <v/>
+      </c>
+      <c r="R20" s="28" t="str">
         <f>IF(_maxmin_day_hour!A17="","",_maxmin_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="S20" s="30" t="str">
+      <c r="S20" s="28" t="str">
         <f>IF(_maxmin_day_hour!B17="","",_maxmin_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="T20" s="48"/>
+      <c r="T20" s="50"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="B21" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A18:'_tag_day_hour'!X18)=0,"",COUNTIF(_tag_day_hour!A18:'_tag_day_hour'!X18,"=0"))</f>
         <v/>
       </c>
-      <c r="C21" s="30" t="str">
+      <c r="C21" s="28" t="str">
         <f>IF(_tag_day_hour!Y18="","",_tag_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="D21" s="30" t="str">
+      <c r="D21" s="28" t="str">
         <f>IF(_tag_day_hour!Z18="","",_tag_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="E21" s="30" t="str">
+      <c r="E21" s="28" t="str">
         <f>IF(_tag_day_hour!AA18="","",_tag_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="F21" s="30" t="str">
+      <c r="F21" s="28" t="str">
         <f>IF(_tag_day_hour!AB18="","",_tag_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="G21" s="30" t="str">
+      <c r="G21" s="28" t="str">
         <f>IF(_tag_day_hour!AC18="","",_tag_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="H21" s="21" t="str">
+      <c r="H21" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD42:'_tag_day_hour'!BA42)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD42:'_tag_day_hour'!BA42),_tag_day_hour!AD42:'_tag_day_hour'!BA42,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD42:'_tag_day_hour'!BA42),_tag_day_hour!AD42:'_tag_day_hour'!BA42,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="I21" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD42:'_tag_day_hour'!BA42)=24,"",MAX(_tag_day_hour!AD42:'_tag_day_hour'!BA42))</f>
         <v/>
       </c>
-      <c r="J21" s="21" t="str">
+      <c r="J21" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD42:'_tag_day_hour'!BA42)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD42:'_tag_day_hour'!BA42),_tag_day_hour!AD42:'_tag_day_hour'!BA42,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD42:'_tag_day_hour'!BA42),_tag_day_hour!AD42:'_tag_day_hour'!BA42,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K21" s="30" t="str">
+      <c r="K21" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD42:'_tag_day_hour'!BA42)=24,"",MIN(_tag_day_hour!AD42:'_tag_day_hour'!BA42))</f>
         <v/>
       </c>
-      <c r="L21" s="35" t="str">
+      <c r="L21" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M21" s="41" t="str">
+      <c r="M21" s="39" t="str">
         <f>IF(_tag_day_hour!BB18="","",_tag_day_hour!BB18)</f>
         <v/>
       </c>
-      <c r="N21" s="35" t="str">
+      <c r="N21" s="33" t="str">
         <f>IF(_tag_day_hour!BC18="","",_tag_day_hour!BC18)</f>
         <v/>
       </c>
-      <c r="O21" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B18="","",_fanchui8_day_hour!B18)</f>
-        <v/>
-      </c>
-      <c r="P21" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C18="","",_fanchui8_day_hour!C18-_fanchui8_day_hour!D18)</f>
-        <v/>
-      </c>
-      <c r="Q21" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D18="","",_fanchui8_day_hour!E18-_fanchui8_day_hour!F18)</f>
-        <v/>
-      </c>
-      <c r="R21" s="30" t="str">
+      <c r="O21" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A18="","",_fanchui8_day_hour!A18)</f>
+        <v/>
+      </c>
+      <c r="P21" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B18="","",_fanchui8_day_hour!B18-_fanchui8_day_hour!C18)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D18="","",_fanchui8_day_hour!D18-_fanchui8_day_hour!E18)</f>
+        <v/>
+      </c>
+      <c r="R21" s="28" t="str">
         <f>IF(_maxmin_day_hour!A18="","",_maxmin_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="S21" s="30" t="str">
+      <c r="S21" s="28" t="str">
         <f>IF(_maxmin_day_hour!B18="","",_maxmin_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="T21" s="47" t="s">
+      <c r="T21" s="49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="B22" s="21" t="str">
+      <c r="B22" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A19:'_tag_day_hour'!X19)=0,"",COUNTIF(_tag_day_hour!A19:'_tag_day_hour'!X19,"=0"))</f>
         <v/>
       </c>
-      <c r="C22" s="30" t="str">
+      <c r="C22" s="28" t="str">
         <f>IF(_tag_day_hour!Y19="","",_tag_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="D22" s="30" t="str">
+      <c r="D22" s="28" t="str">
         <f>IF(_tag_day_hour!Z19="","",_tag_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="E22" s="30" t="str">
+      <c r="E22" s="28" t="str">
         <f>IF(_tag_day_hour!AA19="","",_tag_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="F22" s="30" t="str">
+      <c r="F22" s="28" t="str">
         <f>IF(_tag_day_hour!AB19="","",_tag_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="G22" s="30" t="str">
+      <c r="G22" s="28" t="str">
         <f>IF(_tag_day_hour!AC19="","",_tag_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="H22" s="21" t="str">
+      <c r="H22" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD43:'_tag_day_hour'!BA43)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD43:'_tag_day_hour'!BA43),_tag_day_hour!AD43:'_tag_day_hour'!BA43,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD43:'_tag_day_hour'!BA43),_tag_day_hour!AD43:'_tag_day_hour'!BA43,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I22" s="30" t="str">
+      <c r="I22" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD43:'_tag_day_hour'!BA43)=24,"",MAX(_tag_day_hour!AD43:'_tag_day_hour'!BA43))</f>
         <v/>
       </c>
-      <c r="J22" s="21" t="str">
+      <c r="J22" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD43:'_tag_day_hour'!BA43)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD43:'_tag_day_hour'!BA43),_tag_day_hour!AD43:'_tag_day_hour'!BA43,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD43:'_tag_day_hour'!BA43),_tag_day_hour!AD43:'_tag_day_hour'!BA43,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K22" s="30" t="str">
+      <c r="K22" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD43:'_tag_day_hour'!BA43)=24,"",MIN(_tag_day_hour!AD43:'_tag_day_hour'!BA43))</f>
         <v/>
       </c>
-      <c r="L22" s="35" t="str">
+      <c r="L22" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M22" s="41" t="str">
+      <c r="M22" s="39" t="str">
         <f>IF(_tag_day_hour!BB19="","",_tag_day_hour!BB19)</f>
         <v/>
       </c>
-      <c r="N22" s="35" t="str">
+      <c r="N22" s="33" t="str">
         <f>IF(_tag_day_hour!BC19="","",_tag_day_hour!BC19)</f>
         <v/>
       </c>
-      <c r="O22" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B19="","",_fanchui8_day_hour!B19)</f>
-        <v/>
-      </c>
-      <c r="P22" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C19="","",_fanchui8_day_hour!C19-_fanchui8_day_hour!D19)</f>
-        <v/>
-      </c>
-      <c r="Q22" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D19="","",_fanchui8_day_hour!E19-_fanchui8_day_hour!F19)</f>
-        <v/>
-      </c>
-      <c r="R22" s="30" t="str">
+      <c r="O22" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A19="","",_fanchui8_day_hour!A19)</f>
+        <v/>
+      </c>
+      <c r="P22" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B19="","",_fanchui8_day_hour!B19-_fanchui8_day_hour!C19)</f>
+        <v/>
+      </c>
+      <c r="Q22" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D19="","",_fanchui8_day_hour!D19-_fanchui8_day_hour!E19)</f>
+        <v/>
+      </c>
+      <c r="R22" s="28" t="str">
         <f>IF(_maxmin_day_hour!A19="","",_maxmin_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="S22" s="30" t="str">
+      <c r="S22" s="28" t="str">
         <f>IF(_maxmin_day_hour!B19="","",_maxmin_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="T22" s="48"/>
+      <c r="T22" s="50"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B23" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A20:'_tag_day_hour'!X20)=0,"",COUNTIF(_tag_day_hour!A20:'_tag_day_hour'!X20,"=0"))</f>
         <v/>
       </c>
-      <c r="C23" s="30" t="str">
+      <c r="C23" s="28" t="str">
         <f>IF(_tag_day_hour!Y20="","",_tag_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="D23" s="30" t="str">
+      <c r="D23" s="28" t="str">
         <f>IF(_tag_day_hour!Z20="","",_tag_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="E23" s="30" t="str">
+      <c r="E23" s="28" t="str">
         <f>IF(_tag_day_hour!AA20="","",_tag_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="F23" s="30" t="str">
+      <c r="F23" s="28" t="str">
         <f>IF(_tag_day_hour!AB20="","",_tag_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="G23" s="30" t="str">
+      <c r="G23" s="28" t="str">
         <f>IF(_tag_day_hour!AC20="","",_tag_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="H23" s="21" t="str">
+      <c r="H23" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD44:'_tag_day_hour'!BA44)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD44:'_tag_day_hour'!BA44),_tag_day_hour!AD44:'_tag_day_hour'!BA44,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD44:'_tag_day_hour'!BA44),_tag_day_hour!AD44:'_tag_day_hour'!BA44,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I23" s="30" t="str">
+      <c r="I23" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD44:'_tag_day_hour'!BA44)=24,"",MAX(_tag_day_hour!AD44:'_tag_day_hour'!BA44))</f>
         <v/>
       </c>
-      <c r="J23" s="21" t="str">
+      <c r="J23" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD44:'_tag_day_hour'!BA44)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD44:'_tag_day_hour'!BA44),_tag_day_hour!AD44:'_tag_day_hour'!BA44,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD44:'_tag_day_hour'!BA44),_tag_day_hour!AD44:'_tag_day_hour'!BA44,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K23" s="30" t="str">
+      <c r="K23" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD44:'_tag_day_hour'!BA44)=24,"",MIN(_tag_day_hour!AD44:'_tag_day_hour'!BA44))</f>
         <v/>
       </c>
-      <c r="L23" s="35" t="str">
+      <c r="L23" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M23" s="41" t="str">
+      <c r="M23" s="39" t="str">
         <f>IF(_tag_day_hour!BB20="","",_tag_day_hour!BB20)</f>
         <v/>
       </c>
-      <c r="N23" s="35" t="str">
+      <c r="N23" s="33" t="str">
         <f>IF(_tag_day_hour!BC20="","",_tag_day_hour!BC20)</f>
         <v/>
       </c>
-      <c r="O23" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B20="","",_fanchui8_day_hour!B20)</f>
-        <v/>
-      </c>
-      <c r="P23" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C20="","",_fanchui8_day_hour!C20-_fanchui8_day_hour!D20)</f>
-        <v/>
-      </c>
-      <c r="Q23" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D20="","",_fanchui8_day_hour!E20-_fanchui8_day_hour!F20)</f>
-        <v/>
-      </c>
-      <c r="R23" s="30" t="str">
+      <c r="O23" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A20="","",_fanchui8_day_hour!A20)</f>
+        <v/>
+      </c>
+      <c r="P23" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B20="","",_fanchui8_day_hour!B20-_fanchui8_day_hour!C20)</f>
+        <v/>
+      </c>
+      <c r="Q23" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D20="","",_fanchui8_day_hour!D20-_fanchui8_day_hour!E20)</f>
+        <v/>
+      </c>
+      <c r="R23" s="28" t="str">
         <f>IF(_maxmin_day_hour!A20="","",_maxmin_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="S23" s="30" t="str">
+      <c r="S23" s="28" t="str">
         <f>IF(_maxmin_day_hour!B20="","",_maxmin_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="T23" s="48"/>
+      <c r="T23" s="50"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
         <v>20</v>
       </c>
-      <c r="B24" s="21" t="str">
+      <c r="B24" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A21:'_tag_day_hour'!X21)=0,"",COUNTIF(_tag_day_hour!A21:'_tag_day_hour'!X21,"=0"))</f>
         <v/>
       </c>
-      <c r="C24" s="30" t="str">
+      <c r="C24" s="28" t="str">
         <f>IF(_tag_day_hour!Y21="","",_tag_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="D24" s="30" t="str">
+      <c r="D24" s="28" t="str">
         <f>IF(_tag_day_hour!Z21="","",_tag_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="E24" s="30" t="str">
+      <c r="E24" s="28" t="str">
         <f>IF(_tag_day_hour!AA21="","",_tag_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="F24" s="30" t="str">
+      <c r="F24" s="28" t="str">
         <f>IF(_tag_day_hour!AB21="","",_tag_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="G24" s="30" t="str">
+      <c r="G24" s="28" t="str">
         <f>IF(_tag_day_hour!AC21="","",_tag_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="H24" s="21" t="str">
+      <c r="H24" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD45:'_tag_day_hour'!BA45)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD45:'_tag_day_hour'!BA45),_tag_day_hour!AD45:'_tag_day_hour'!BA45,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD45:'_tag_day_hour'!BA45),_tag_day_hour!AD45:'_tag_day_hour'!BA45,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I24" s="30" t="str">
+      <c r="I24" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD45:'_tag_day_hour'!BA45)=24,"",MAX(_tag_day_hour!AD45:'_tag_day_hour'!BA45))</f>
         <v/>
       </c>
-      <c r="J24" s="21" t="str">
+      <c r="J24" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD45:'_tag_day_hour'!BA45)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD45:'_tag_day_hour'!BA45),_tag_day_hour!AD45:'_tag_day_hour'!BA45,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD45:'_tag_day_hour'!BA45),_tag_day_hour!AD45:'_tag_day_hour'!BA45,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K24" s="30" t="str">
+      <c r="K24" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD45:'_tag_day_hour'!BA45)=24,"",MIN(_tag_day_hour!AD45:'_tag_day_hour'!BA45))</f>
         <v/>
       </c>
-      <c r="L24" s="35" t="str">
+      <c r="L24" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M24" s="41" t="str">
+      <c r="M24" s="39" t="str">
         <f>IF(_tag_day_hour!BB21="","",_tag_day_hour!BB21)</f>
         <v/>
       </c>
-      <c r="N24" s="35" t="str">
+      <c r="N24" s="33" t="str">
         <f>IF(_tag_day_hour!BC21="","",_tag_day_hour!BC21)</f>
         <v/>
       </c>
-      <c r="O24" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B21="","",_fanchui8_day_hour!B21)</f>
-        <v/>
-      </c>
-      <c r="P24" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C21="","",_fanchui8_day_hour!C21-_fanchui8_day_hour!D21)</f>
-        <v/>
-      </c>
-      <c r="Q24" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D21="","",_fanchui8_day_hour!E21-_fanchui8_day_hour!F21)</f>
-        <v/>
-      </c>
-      <c r="R24" s="30" t="str">
+      <c r="O24" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A21="","",_fanchui8_day_hour!A21)</f>
+        <v/>
+      </c>
+      <c r="P24" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B21="","",_fanchui8_day_hour!B21-_fanchui8_day_hour!C21)</f>
+        <v/>
+      </c>
+      <c r="Q24" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D21="","",_fanchui8_day_hour!D21-_fanchui8_day_hour!E21)</f>
+        <v/>
+      </c>
+      <c r="R24" s="28" t="str">
         <f>IF(_maxmin_day_hour!A21="","",_maxmin_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="S24" s="30" t="str">
+      <c r="S24" s="28" t="str">
         <f>IF(_maxmin_day_hour!B21="","",_maxmin_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="T24" s="48"/>
+      <c r="T24" s="50"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="B25" s="21" t="str">
+      <c r="B25" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A22:'_tag_day_hour'!X22)=0,"",COUNTIF(_tag_day_hour!A22:'_tag_day_hour'!X22,"=0"))</f>
         <v/>
       </c>
-      <c r="C25" s="30" t="str">
+      <c r="C25" s="28" t="str">
         <f>IF(_tag_day_hour!Y22="","",_tag_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="D25" s="30" t="str">
+      <c r="D25" s="28" t="str">
         <f>IF(_tag_day_hour!Z22="","",_tag_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="E25" s="30" t="str">
+      <c r="E25" s="28" t="str">
         <f>IF(_tag_day_hour!AA22="","",_tag_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="F25" s="30" t="str">
+      <c r="F25" s="28" t="str">
         <f>IF(_tag_day_hour!AB22="","",_tag_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="G25" s="30" t="str">
+      <c r="G25" s="28" t="str">
         <f>IF(_tag_day_hour!AC22="","",_tag_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="H25" s="21" t="str">
+      <c r="H25" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD46:'_tag_day_hour'!BA46)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD46:'_tag_day_hour'!BA46),_tag_day_hour!AD46:'_tag_day_hour'!BA46,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD46:'_tag_day_hour'!BA46),_tag_day_hour!AD46:'_tag_day_hour'!BA46,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I25" s="30" t="str">
+      <c r="I25" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD46:'_tag_day_hour'!BA46)=24,"",MAX(_tag_day_hour!AD46:'_tag_day_hour'!BA46))</f>
         <v/>
       </c>
-      <c r="J25" s="21" t="str">
+      <c r="J25" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD46:'_tag_day_hour'!BA46)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD46:'_tag_day_hour'!BA46),_tag_day_hour!AD46:'_tag_day_hour'!BA46,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD46:'_tag_day_hour'!BA46),_tag_day_hour!AD46:'_tag_day_hour'!BA46,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K25" s="30" t="str">
+      <c r="K25" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD46:'_tag_day_hour'!BA46)=24,"",MIN(_tag_day_hour!AD46:'_tag_day_hour'!BA46))</f>
         <v/>
       </c>
-      <c r="L25" s="35" t="str">
+      <c r="L25" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M25" s="41" t="str">
+      <c r="M25" s="39" t="str">
         <f>IF(_tag_day_hour!BB22="","",_tag_day_hour!BB22)</f>
         <v/>
       </c>
-      <c r="N25" s="35" t="str">
+      <c r="N25" s="33" t="str">
         <f>IF(_tag_day_hour!BC22="","",_tag_day_hour!BC22)</f>
         <v/>
       </c>
-      <c r="O25" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B22="","",_fanchui8_day_hour!B22)</f>
-        <v/>
-      </c>
-      <c r="P25" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C22="","",_fanchui8_day_hour!C22-_fanchui8_day_hour!D22)</f>
-        <v/>
-      </c>
-      <c r="Q25" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D22="","",_fanchui8_day_hour!E22-_fanchui8_day_hour!F22)</f>
-        <v/>
-      </c>
-      <c r="R25" s="30" t="str">
+      <c r="O25" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A22="","",_fanchui8_day_hour!A22)</f>
+        <v/>
+      </c>
+      <c r="P25" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B22="","",_fanchui8_day_hour!B22-_fanchui8_day_hour!C22)</f>
+        <v/>
+      </c>
+      <c r="Q25" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D22="","",_fanchui8_day_hour!D22-_fanchui8_day_hour!E22)</f>
+        <v/>
+      </c>
+      <c r="R25" s="28" t="str">
         <f>IF(_maxmin_day_hour!A22="","",_maxmin_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="S25" s="30" t="str">
+      <c r="S25" s="28" t="str">
         <f>IF(_maxmin_day_hour!B22="","",_maxmin_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="T25" s="48"/>
+      <c r="T25" s="50"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
         <v>22</v>
       </c>
-      <c r="B26" s="21" t="str">
+      <c r="B26" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A23:'_tag_day_hour'!X23)=0,"",COUNTIF(_tag_day_hour!A23:'_tag_day_hour'!X23,"=0"))</f>
         <v/>
       </c>
-      <c r="C26" s="30" t="str">
+      <c r="C26" s="28" t="str">
         <f>IF(_tag_day_hour!Y23="","",_tag_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="D26" s="30" t="str">
+      <c r="D26" s="28" t="str">
         <f>IF(_tag_day_hour!Z23="","",_tag_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="E26" s="30" t="str">
+      <c r="E26" s="28" t="str">
         <f>IF(_tag_day_hour!AA23="","",_tag_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="F26" s="30" t="str">
+      <c r="F26" s="28" t="str">
         <f>IF(_tag_day_hour!AB23="","",_tag_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="G26" s="30" t="str">
+      <c r="G26" s="28" t="str">
         <f>IF(_tag_day_hour!AC23="","",_tag_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="H26" s="21" t="str">
+      <c r="H26" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD47:'_tag_day_hour'!BA47)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD47:'_tag_day_hour'!BA47),_tag_day_hour!AD47:'_tag_day_hour'!BA47,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD47:'_tag_day_hour'!BA47),_tag_day_hour!AD47:'_tag_day_hour'!BA47,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I26" s="30" t="str">
+      <c r="I26" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD47:'_tag_day_hour'!BA47)=24,"",MAX(_tag_day_hour!AD47:'_tag_day_hour'!BA47))</f>
         <v/>
       </c>
-      <c r="J26" s="21" t="str">
+      <c r="J26" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD47:'_tag_day_hour'!BA47)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD47:'_tag_day_hour'!BA47),_tag_day_hour!AD47:'_tag_day_hour'!BA47,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD47:'_tag_day_hour'!BA47),_tag_day_hour!AD47:'_tag_day_hour'!BA47,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K26" s="30" t="str">
+      <c r="K26" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD47:'_tag_day_hour'!BA47)=24,"",MIN(_tag_day_hour!AD47:'_tag_day_hour'!BA47))</f>
         <v/>
       </c>
-      <c r="L26" s="35" t="str">
+      <c r="L26" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M26" s="41" t="str">
+      <c r="M26" s="39" t="str">
         <f>IF(_tag_day_hour!BB23="","",_tag_day_hour!BB23)</f>
         <v/>
       </c>
-      <c r="N26" s="35" t="str">
+      <c r="N26" s="33" t="str">
         <f>IF(_tag_day_hour!BC23="","",_tag_day_hour!BC23)</f>
         <v/>
       </c>
-      <c r="O26" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B23="","",_fanchui8_day_hour!B23)</f>
-        <v/>
-      </c>
-      <c r="P26" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C23="","",_fanchui8_day_hour!C23-_fanchui8_day_hour!D23)</f>
-        <v/>
-      </c>
-      <c r="Q26" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D23="","",_fanchui8_day_hour!E23-_fanchui8_day_hour!F23)</f>
-        <v/>
-      </c>
-      <c r="R26" s="30" t="str">
+      <c r="O26" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A23="","",_fanchui8_day_hour!A23)</f>
+        <v/>
+      </c>
+      <c r="P26" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B23="","",_fanchui8_day_hour!B23-_fanchui8_day_hour!C23)</f>
+        <v/>
+      </c>
+      <c r="Q26" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D23="","",_fanchui8_day_hour!D23-_fanchui8_day_hour!E23)</f>
+        <v/>
+      </c>
+      <c r="R26" s="28" t="str">
         <f>IF(_maxmin_day_hour!A23="","",_maxmin_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="S26" s="30" t="str">
+      <c r="S26" s="28" t="str">
         <f>IF(_maxmin_day_hour!B23="","",_maxmin_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="T26" s="48"/>
+      <c r="T26" s="50"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
         <v>23</v>
       </c>
-      <c r="B27" s="21" t="str">
+      <c r="B27" s="19" t="str">
         <f>IF(COUNTA(_tag_day_hour!A24:'_tag_day_hour'!X24)=0,"",COUNTIF(_tag_day_hour!A24:'_tag_day_hour'!X24,"=0"))</f>
         <v/>
       </c>
-      <c r="C27" s="30" t="str">
+      <c r="C27" s="28" t="str">
         <f>IF(_tag_day_hour!Y24="","",_tag_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="D27" s="30" t="str">
+      <c r="D27" s="28" t="str">
         <f>IF(_tag_day_hour!Z24="","",_tag_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="E27" s="30" t="str">
+      <c r="E27" s="28" t="str">
         <f>IF(_tag_day_hour!AA24="","",_tag_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="F27" s="30" t="str">
+      <c r="F27" s="28" t="str">
         <f>IF(_tag_day_hour!AB24="","",_tag_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="G27" s="30" t="str">
+      <c r="G27" s="28" t="str">
         <f>IF(_tag_day_hour!AC24="","",_tag_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="H27" s="21" t="str">
+      <c r="H27" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD48:'_tag_day_hour'!BA48)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD48:'_tag_day_hour'!BA48),_tag_day_hour!AD48:'_tag_day_hour'!BA48,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD48:'_tag_day_hour'!BA48),_tag_day_hour!AD48:'_tag_day_hour'!BA48,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I27" s="30" t="str">
+      <c r="I27" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD48:'_tag_day_hour'!BA48)=24,"",MAX(_tag_day_hour!AD48:'_tag_day_hour'!BA48))</f>
         <v/>
       </c>
-      <c r="J27" s="21" t="str">
+      <c r="J27" s="19" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD48:'_tag_day_hour'!BA48)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD48:'_tag_day_hour'!BA48),_tag_day_hour!AD48:'_tag_day_hour'!BA48,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD48:'_tag_day_hour'!BA48),_tag_day_hour!AD48:'_tag_day_hour'!BA48,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K27" s="30" t="str">
+      <c r="K27" s="28" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD48:'_tag_day_hour'!BA48)=24,"",MIN(_tag_day_hour!AD48:'_tag_day_hour'!BA48))</f>
         <v/>
       </c>
-      <c r="L27" s="35" t="str">
+      <c r="L27" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M27" s="41" t="str">
+      <c r="M27" s="39" t="str">
         <f>IF(_tag_day_hour!BB24="","",_tag_day_hour!BB24)</f>
         <v/>
       </c>
-      <c r="N27" s="35" t="str">
+      <c r="N27" s="33" t="str">
         <f>IF(_tag_day_hour!BC24="","",_tag_day_hour!BC24)</f>
         <v/>
       </c>
-      <c r="O27" s="14" t="str">
-        <f>IF(_fanchui8_day_hour!B24="","",_fanchui8_day_hour!B24)</f>
-        <v/>
-      </c>
-      <c r="P27" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!C24="","",_fanchui8_day_hour!C24-_fanchui8_day_hour!D24)</f>
-        <v/>
-      </c>
-      <c r="Q27" s="35" t="str">
-        <f>IF(_fanchui8_day_hour!D24="","",_fanchui8_day_hour!E24-_fanchui8_day_hour!F24)</f>
-        <v/>
-      </c>
-      <c r="R27" s="30" t="str">
+      <c r="O27" s="12" t="str">
+        <f>IF(_fanchui8_day_hour!A24="","",_fanchui8_day_hour!A24)</f>
+        <v/>
+      </c>
+      <c r="P27" s="33" t="str">
+        <f>IF(_fanchui8_day_hour!B24="","",_fanchui8_day_hour!B24-_fanchui8_day_hour!C24)</f>
+        <v/>
+      </c>
+      <c r="Q27" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D24="","",_fanchui8_day_hour!D24-_fanchui8_day_hour!E24)</f>
+        <v/>
+      </c>
+      <c r="R27" s="28" t="str">
         <f>IF(_maxmin_day_hour!A24="","",_maxmin_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="S27" s="30" t="str">
+      <c r="S27" s="28" t="str">
         <f>IF(_maxmin_day_hour!B24="","",_maxmin_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="T27" s="48"/>
+      <c r="T27" s="50"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
         <v>24</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="20" t="str">
         <f>IF(COUNTA(_tag_day_hour!A25:'_tag_day_hour'!X25)=0,"",COUNTIF(_tag_day_hour!A25:'_tag_day_hour'!X25,"=0"))</f>
         <v/>
       </c>
-      <c r="C28" s="31" t="str">
+      <c r="C28" s="29" t="str">
         <f>IF(_tag_day_hour!Y25="","",_tag_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="D28" s="31" t="str">
+      <c r="D28" s="29" t="str">
         <f>IF(_tag_day_hour!Z25="","",_tag_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="29" t="str">
         <f>IF(_tag_day_hour!AA25="","",_tag_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="F28" s="31" t="str">
+      <c r="F28" s="29" t="str">
         <f>IF(_tag_day_hour!AB25="","",_tag_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="G28" s="31" t="str">
+      <c r="G28" s="29" t="str">
         <f>IF(_tag_day_hour!AC25="","",_tag_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="H28" s="22" t="str">
+      <c r="H28" s="20" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD49:'_tag_day_hour'!BA49)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD49:'_tag_day_hour'!BA49),_tag_day_hour!AD49:'_tag_day_hour'!BA49,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MAX(_tag_day_hour!AD49:'_tag_day_hour'!BA49),_tag_day_hour!AD49:'_tag_day_hour'!BA49,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="I28" s="31" t="str">
+      <c r="I28" s="29" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD49:'_tag_day_hour'!BA49)=24,"",MAX(_tag_day_hour!AD49:'_tag_day_hour'!BA49))</f>
         <v/>
       </c>
-      <c r="J28" s="22" t="str">
+      <c r="J28" s="20" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD49:'_tag_day_hour'!BA49)=24,"",SUBSTITUTE(MID(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD49:'_tag_day_hour'!BA49),_tag_day_hour!AD49:'_tag_day_hour'!BA49,0)),LEN(INDEX(_tag_day_hour!$AD$1:'_tag_day_hour'!$BA$1,MATCH(MIN(_tag_day_hour!AD49:'_tag_day_hour'!BA49),_tag_day_hour!AD49:'_tag_day_hour'!BA49,0)))-10,4),"_",""))</f>
         <v/>
       </c>
-      <c r="K28" s="31" t="str">
+      <c r="K28" s="29" t="str">
         <f>IF(COUNTBLANK(_tag_day_hour!AD49:'_tag_day_hour'!BA49)=24,"",MIN(_tag_day_hour!AD49:'_tag_day_hour'!BA49))</f>
         <v/>
       </c>
-      <c r="L28" s="36" t="str">
+      <c r="L28" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="40" t="str">
         <f>IF(_tag_day_hour!BB25="","",_tag_day_hour!BB25)</f>
         <v/>
       </c>
-      <c r="N28" s="36" t="str">
+      <c r="N28" s="34" t="str">
         <f>IF(_tag_day_hour!BC25="","",_tag_day_hour!BC25)</f>
         <v/>
       </c>
-      <c r="O28" s="15" t="str">
-        <f>IF(_fanchui8_day_hour!B25="","",_fanchui8_day_hour!B25)</f>
-        <v/>
-      </c>
-      <c r="P28" s="36" t="str">
-        <f>IF(_fanchui8_day_hour!C25="","",_fanchui8_day_hour!C25-_fanchui8_day_hour!D25)</f>
-        <v/>
-      </c>
-      <c r="Q28" s="36" t="str">
-        <f>IF(_fanchui8_day_hour!D25="","",_fanchui8_day_hour!E25-_fanchui8_day_hour!F25)</f>
-        <v/>
-      </c>
-      <c r="R28" s="31" t="str">
+      <c r="O28" s="13" t="str">
+        <f>IF(_fanchui8_day_hour!A25="","",_fanchui8_day_hour!A25)</f>
+        <v/>
+      </c>
+      <c r="P28" s="34" t="str">
+        <f>IF(_fanchui8_day_hour!B25="","",_fanchui8_day_hour!B25-_fanchui8_day_hour!C25)</f>
+        <v/>
+      </c>
+      <c r="Q28" s="32" t="str">
+        <f>IF(_fanchui8_day_hour!D25="","",_fanchui8_day_hour!D25-_fanchui8_day_hour!E25)</f>
+        <v/>
+      </c>
+      <c r="R28" s="29" t="str">
         <f>IF(_maxmin_day_hour!A25="","",_maxmin_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="S28" s="31" t="str">
+      <c r="S28" s="29" t="str">
         <f>IF(_maxmin_day_hour!B25="","",_maxmin_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="T28" s="49"/>
+      <c r="T28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="T5:T12"/>
+    <mergeCell ref="T13:T20"/>
+    <mergeCell ref="T21:T28"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -3271,14 +3268,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T5:T12"/>
-    <mergeCell ref="T13:T20"/>
-    <mergeCell ref="T21:T28"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3295,176 +3284,176 @@
       <selection activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:55" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:55" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BA1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BB1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BC1" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD26" t="str">
         <f t="shared" ref="AD26:AD49" si="0">IF(A2="","",IF(A2=0,AD2,""))</f>
         <v/>
@@ -3562,7 +3551,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD27" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3660,7 +3649,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD28" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3758,7 +3747,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD29" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3856,7 +3845,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD30" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3954,7 +3943,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD31" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4052,7 +4041,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4150,7 +4139,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="33" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD33" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4248,7 +4237,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="34" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4346,7 +4335,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="35" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD35" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4444,7 +4433,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="36" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD36" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4542,7 +4531,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="37" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD37" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4640,7 +4629,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="38" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4738,7 +4727,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="39" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD39" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4836,7 +4825,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="40" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4934,7 +4923,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="41" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5032,7 +5021,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="42" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5130,7 +5119,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="43" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD43" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5228,7 +5217,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="44" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5326,7 +5315,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="45" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD45" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5424,7 +5413,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="46" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD46" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5522,7 +5511,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="47" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD47" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5620,7 +5609,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="48" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5718,7 +5707,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="30:53" x14ac:dyDescent="0.25">
+    <row r="49" spans="30:53" x14ac:dyDescent="0.15">
       <c r="AD49" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5829,7 +5818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5844,13 +5833,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="2">
         <v>8</v>
       </c>
     </row>
@@ -5868,13 +5857,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5886,38 +5875,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/finished/环保/8BF-煤气布袋除尘报表.xlsx
+++ b/excel/finished/环保/8BF-煤气布袋除尘报表.xlsx
@@ -880,15 +880,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -900,6 +891,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -921,6 +915,12 @@
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:Q28"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1227,22 +1227,22 @@
       <c r="A1" s="7"/>
       <c r="B1" s="16"/>
       <c r="C1" s="25"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
       <c r="R1" s="25"/>
       <c r="S1" s="25"/>
       <c r="T1" s="7"/>
@@ -1253,11 +1253,11 @@
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
-      <c r="F2" s="47" t="str">
+      <c r="F2" s="58" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="16"/>
       <c r="I2" s="25"/>
       <c r="J2" s="16"/>
@@ -1275,61 +1275,61 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48" t="s">
+      <c r="G3" s="49"/>
+      <c r="H3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="57" t="s">
+      <c r="K3" s="49"/>
+      <c r="L3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48" t="s">
+      <c r="N3" s="49"/>
+      <c r="O3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48" t="s">
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="48"/>
+      <c r="S3" s="49"/>
       <c r="T3" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="26" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="K4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="58"/>
+      <c r="L4" s="56"/>
       <c r="M4" s="37" t="s">
         <v>17</v>
       </c>
@@ -1448,7 +1448,7 @@
         <f>IF(_maxmin_day_hour!B2="","",_maxmin_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="T5" s="49" t="s">
+      <c r="T5" s="46" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
         <f>IF(_maxmin_day_hour!B3="","",_maxmin_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="T6" s="50"/>
+      <c r="T6" s="47"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
@@ -1606,7 +1606,7 @@
         <f>IF(_maxmin_day_hour!B4="","",_maxmin_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="T7" s="50"/>
+      <c r="T7" s="47"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
@@ -1684,7 +1684,7 @@
         <f>IF(_maxmin_day_hour!B5="","",_maxmin_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="T8" s="50"/>
+      <c r="T8" s="47"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
@@ -1762,7 +1762,7 @@
         <f>IF(_maxmin_day_hour!B6="","",_maxmin_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="T9" s="50"/>
+      <c r="T9" s="47"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
@@ -1840,7 +1840,7 @@
         <f>IF(_maxmin_day_hour!B7="","",_maxmin_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="T10" s="50"/>
+      <c r="T10" s="47"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
@@ -1918,7 +1918,7 @@
         <f>IF(_maxmin_day_hour!B8="","",_maxmin_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="T11" s="50"/>
+      <c r="T11" s="47"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
@@ -1996,7 +1996,7 @@
         <f>IF(_maxmin_day_hour!B9="","",_maxmin_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="T12" s="50"/>
+      <c r="T12" s="47"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
@@ -2074,7 +2074,7 @@
         <f>IF(_maxmin_day_hour!B10="","",_maxmin_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="T13" s="49" t="s">
+      <c r="T13" s="46" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
         <f>IF(_maxmin_day_hour!B11="","",_maxmin_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="T14" s="50"/>
+      <c r="T14" s="47"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
@@ -2232,7 +2232,7 @@
         <f>IF(_maxmin_day_hour!B12="","",_maxmin_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="T15" s="50"/>
+      <c r="T15" s="47"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
@@ -2310,7 +2310,7 @@
         <f>IF(_maxmin_day_hour!B13="","",_maxmin_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="T16" s="50"/>
+      <c r="T16" s="47"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
@@ -2388,7 +2388,7 @@
         <f>IF(_maxmin_day_hour!B14="","",_maxmin_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="T17" s="50"/>
+      <c r="T17" s="47"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
@@ -2466,7 +2466,7 @@
         <f>IF(_maxmin_day_hour!B15="","",_maxmin_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="T18" s="50"/>
+      <c r="T18" s="47"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
@@ -2544,7 +2544,7 @@
         <f>IF(_maxmin_day_hour!B16="","",_maxmin_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="T19" s="50"/>
+      <c r="T19" s="47"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
@@ -2622,7 +2622,7 @@
         <f>IF(_maxmin_day_hour!B17="","",_maxmin_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="T20" s="50"/>
+      <c r="T20" s="47"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
@@ -2700,7 +2700,7 @@
         <f>IF(_maxmin_day_hour!B18="","",_maxmin_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="T21" s="49" t="s">
+      <c r="T21" s="46" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
         <f>IF(_maxmin_day_hour!B19="","",_maxmin_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="T22" s="50"/>
+      <c r="T22" s="47"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
@@ -2858,7 +2858,7 @@
         <f>IF(_maxmin_day_hour!B20="","",_maxmin_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="T23" s="50"/>
+      <c r="T23" s="47"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
@@ -2936,7 +2936,7 @@
         <f>IF(_maxmin_day_hour!B21="","",_maxmin_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="T24" s="50"/>
+      <c r="T24" s="47"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
@@ -3014,7 +3014,7 @@
         <f>IF(_maxmin_day_hour!B22="","",_maxmin_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="T25" s="50"/>
+      <c r="T25" s="47"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
@@ -3092,7 +3092,7 @@
         <f>IF(_maxmin_day_hour!B23="","",_maxmin_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="T26" s="50"/>
+      <c r="T26" s="47"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
@@ -3170,7 +3170,7 @@
         <f>IF(_maxmin_day_hour!B24="","",_maxmin_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="T27" s="50"/>
+      <c r="T27" s="47"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
@@ -3248,10 +3248,18 @@
         <f>IF(_maxmin_day_hour!B25="","",_maxmin_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="T28" s="51"/>
+      <c r="T28" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="T5:T12"/>
     <mergeCell ref="T13:T20"/>
     <mergeCell ref="T21:T28"/>
@@ -3260,14 +3268,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
